--- a/Data/easy_trial_seperate_schemes/_g_visit__spørgeskemaer.mITT.data .xlsx
+++ b/Data/easy_trial_seperate_schemes/_g_visit__spørgeskemaer.mITT.data .xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH233"/>
+  <dimension ref="A1:DH232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43943,7 +43943,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>213019</v>
+        <v>213031</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -43957,12 +43957,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Arb Liste 167</t>
+          <t>Arb Liste 192</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>LUP054</t>
+          <t>LUP055</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -43970,33 +43970,271 @@
           <t>F</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M197" s="2">
-        <v>45516</v>
-      </c>
-      <c r="N197" s="2">
-        <v>45576</v>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I197" s="2">
+        <v>45301.37086805556</v>
+      </c>
+      <c r="J197" s="2">
+        <v>45301.49586805556</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="CN197">
-        <v>1518</v>
+      <c r="P197">
+        <v>11</v>
+      </c>
+      <c r="Q197">
+        <v>98506</v>
+      </c>
+      <c r="R197">
+        <v>3438</v>
+      </c>
+      <c r="S197">
+        <v>6</v>
+      </c>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197">
+        <v>3</v>
+      </c>
+      <c r="W197">
+        <v>3</v>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y197">
+        <v>3</v>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA197">
+        <v>5</v>
+      </c>
+      <c r="AB197">
+        <v>40</v>
+      </c>
+      <c r="AC197">
+        <v>0</v>
+      </c>
+      <c r="AD197">
+        <v>1</v>
+      </c>
+      <c r="AE197">
+        <v>2</v>
+      </c>
+      <c r="AF197">
+        <v>1</v>
+      </c>
+      <c r="AG197">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>0</v>
+      </c>
+      <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
+      <c r="AP197">
+        <v>0</v>
+      </c>
+      <c r="AQ197">
+        <v>0</v>
+      </c>
+      <c r="AR197">
+        <v>0</v>
+      </c>
+      <c r="AS197">
+        <v>0</v>
+      </c>
+      <c r="AT197">
+        <v>0</v>
+      </c>
+      <c r="AU197">
+        <v>0</v>
+      </c>
+      <c r="AV197">
+        <v>0</v>
+      </c>
+      <c r="AW197">
+        <v>0</v>
+      </c>
+      <c r="AX197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>2</v>
+      </c>
+      <c r="BD197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BE197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BF197">
+        <v>3</v>
+      </c>
+      <c r="BG197">
+        <v>3</v>
+      </c>
+      <c r="BH197">
+        <v>3</v>
+      </c>
+      <c r="BI197">
+        <v>3</v>
+      </c>
+      <c r="BJ197">
+        <v>3</v>
+      </c>
+      <c r="BK197">
+        <v>3</v>
+      </c>
+      <c r="BL197">
+        <v>3</v>
+      </c>
+      <c r="BM197">
+        <v>3</v>
+      </c>
+      <c r="BN197">
+        <v>3</v>
+      </c>
+      <c r="BO197">
+        <v>3</v>
+      </c>
+      <c r="BP197">
+        <v>2</v>
+      </c>
+      <c r="BQ197">
+        <v>2</v>
+      </c>
+      <c r="BR197">
+        <v>2</v>
+      </c>
+      <c r="BS197">
+        <v>2</v>
+      </c>
+      <c r="BT197">
+        <v>2</v>
+      </c>
+      <c r="BU197">
+        <v>2</v>
+      </c>
+      <c r="BV197">
+        <v>2</v>
+      </c>
+      <c r="BW197">
+        <v>1</v>
+      </c>
+      <c r="BX197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BY197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ197">
+        <v>3</v>
+      </c>
+      <c r="CA197">
+        <v>6</v>
+      </c>
+      <c r="CB197">
+        <v>6</v>
+      </c>
+      <c r="CC197">
+        <v>2</v>
+      </c>
+      <c r="CD197">
+        <v>3</v>
+      </c>
+      <c r="CE197">
+        <v>6</v>
+      </c>
+      <c r="CF197">
+        <v>6</v>
+      </c>
+      <c r="CG197">
+        <v>1</v>
+      </c>
+      <c r="CH197">
+        <v>4</v>
+      </c>
+      <c r="CI197">
+        <v>4</v>
+      </c>
+      <c r="CJ197">
+        <v>3</v>
+      </c>
+      <c r="CK197">
+        <v>2</v>
+      </c>
+      <c r="CL197">
+        <v>5</v>
+      </c>
+      <c r="CM197">
+        <v>2</v>
       </c>
       <c r="CO197" t="inlineStr">
         <is>
-          <t>lup_054</t>
+          <t>lup_055</t>
         </is>
       </c>
       <c r="CP197">
@@ -44011,52 +44249,52 @@
         </is>
       </c>
       <c r="CS197">
-        <v>2.293879180598523</v>
+        <v>1.057995591204785</v>
       </c>
       <c r="CT197">
-        <v>0.9661398535214949</v>
+        <v>0.631472179378184</v>
       </c>
       <c r="CU197">
-        <v>0.625193798901879</v>
+        <v>0.2264179169762452</v>
       </c>
       <c r="CV197">
-        <v>29.40871087617351</v>
+        <v>0.9633250066981153</v>
       </c>
       <c r="CW197">
-        <v>0.837726975296465</v>
+        <v>0.5021841800460352</v>
       </c>
       <c r="CX197">
-        <v>2.178751489084844</v>
+        <v>0.588839194940014</v>
       </c>
       <c r="CY197">
-        <v>0.527213999239972</v>
+        <v>0.03290478520216784</v>
       </c>
       <c r="CZ197">
-        <v>0.8226540879328939</v>
+        <v>0.0294080144752244</v>
       </c>
       <c r="DA197">
-        <v>1064.132220351503</v>
+        <v>688.4782678086534</v>
       </c>
       <c r="DB197">
-        <v>907.032527596619</v>
+        <v>758.6743040084156</v>
       </c>
       <c r="DC197">
-        <v>1464.719446352288</v>
+        <v>1111.648572496126</v>
       </c>
       <c r="DD197">
-        <v>1095.727261150818</v>
+        <v>453.6581438365121</v>
       </c>
       <c r="DE197">
-        <v>703.5668449794081</v>
+        <v>598.2678080913053</v>
       </c>
       <c r="DF197">
-        <v>17281.76823724833</v>
+        <v>8589.260613124121</v>
       </c>
       <c r="DG197">
-        <v>345.3579051373666</v>
+        <v>248.2176720464151</v>
       </c>
       <c r="DH197">
-        <v>245.9794763693379</v>
+        <v>148.5164446411826</v>
       </c>
     </row>
     <row r="198">
@@ -44090,7 +44328,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -44099,10 +44337,10 @@
         </is>
       </c>
       <c r="I198" s="2">
-        <v>45301.37086805556</v>
+        <v>45397.39789351852</v>
       </c>
       <c r="J198" s="2">
-        <v>45301.49586805556</v>
+        <v>45397.52289351852</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -44113,56 +44351,56 @@
         <v>11</v>
       </c>
       <c r="Q198">
-        <v>98506</v>
+        <v>99165</v>
       </c>
       <c r="R198">
         <v>3438</v>
       </c>
       <c r="S198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T198">
         <v>2</v>
       </c>
       <c r="U198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA198">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB198">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AC198">
         <v>0</v>
       </c>
       <c r="AD198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG198">
         <v>0</v>
@@ -44177,7 +44415,7 @@
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM198">
         <v>0</v>
@@ -44222,23 +44460,23 @@
       </c>
       <c r="AZ198" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA198">
-        <v>0</v>
-      </c>
-      <c r="BB198">
-        <v>0</v>
-      </c>
-      <c r="BC198">
-        <v>2</v>
-      </c>
-      <c r="BD198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="BE198" t="inlineStr">
         <is>
           <t>3</t>
@@ -44300,7 +44538,7 @@
       </c>
       <c r="BX198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BY198" t="inlineStr">
@@ -44309,7 +44547,7 @@
         </is>
       </c>
       <c r="BZ198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA198">
         <v>6</v>
@@ -44336,16 +44574,16 @@
         <v>4</v>
       </c>
       <c r="CI198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK198">
         <v>2</v>
       </c>
       <c r="CL198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CM198">
         <v>2</v>
@@ -44417,7 +44655,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>213031</v>
+        <v>212335</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -44431,12 +44669,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Arb Liste 192</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>LUP055</t>
+          <t>LUP014</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -44446,269 +44684,31 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Visit 5 - Follow-Up</t>
+          <t>Visit 2 - Baseline_002</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="I199" s="2">
-        <v>45397.39789351852</v>
+        <v>44858.33333333333</v>
       </c>
       <c r="J199" s="2">
-        <v>45397.52289351852</v>
+        <v>44858.45833333333</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P199">
-        <v>11</v>
-      </c>
       <c r="Q199">
-        <v>99165</v>
-      </c>
-      <c r="R199">
-        <v>3438</v>
-      </c>
-      <c r="S199">
-        <v>5</v>
-      </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1</v>
-      </c>
-      <c r="W199">
-        <v>1</v>
-      </c>
-      <c r="X199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y199">
-        <v>2</v>
-      </c>
-      <c r="Z199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA199">
-        <v>2</v>
-      </c>
-      <c r="AB199">
-        <v>86</v>
-      </c>
-      <c r="AC199">
-        <v>0</v>
-      </c>
-      <c r="AD199">
-        <v>0</v>
-      </c>
-      <c r="AE199">
-        <v>1</v>
-      </c>
-      <c r="AF199">
-        <v>0</v>
-      </c>
-      <c r="AG199">
-        <v>0</v>
-      </c>
-      <c r="AH199">
-        <v>0</v>
-      </c>
-      <c r="AI199">
-        <v>0</v>
-      </c>
-      <c r="AK199">
-        <v>0</v>
-      </c>
-      <c r="AL199">
-        <v>1</v>
-      </c>
-      <c r="AM199">
-        <v>0</v>
-      </c>
-      <c r="AN199">
-        <v>0</v>
-      </c>
-      <c r="AO199">
-        <v>0</v>
-      </c>
-      <c r="AP199">
-        <v>0</v>
-      </c>
-      <c r="AQ199">
-        <v>0</v>
-      </c>
-      <c r="AR199">
-        <v>0</v>
-      </c>
-      <c r="AS199">
-        <v>0</v>
-      </c>
-      <c r="AT199">
-        <v>0</v>
-      </c>
-      <c r="AU199">
-        <v>0</v>
-      </c>
-      <c r="AV199">
-        <v>0</v>
-      </c>
-      <c r="AW199">
-        <v>0</v>
-      </c>
-      <c r="AX199" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY199">
-        <v>0</v>
-      </c>
-      <c r="AZ199" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA199">
-        <v>0</v>
-      </c>
-      <c r="BB199">
-        <v>0</v>
-      </c>
-      <c r="BC199">
-        <v>0</v>
-      </c>
-      <c r="BD199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BF199">
-        <v>3</v>
-      </c>
-      <c r="BG199">
-        <v>3</v>
-      </c>
-      <c r="BH199">
-        <v>3</v>
-      </c>
-      <c r="BI199">
-        <v>3</v>
-      </c>
-      <c r="BJ199">
-        <v>3</v>
-      </c>
-      <c r="BK199">
-        <v>3</v>
-      </c>
-      <c r="BL199">
-        <v>3</v>
-      </c>
-      <c r="BM199">
-        <v>3</v>
-      </c>
-      <c r="BN199">
-        <v>3</v>
-      </c>
-      <c r="BO199">
-        <v>3</v>
-      </c>
-      <c r="BP199">
-        <v>2</v>
-      </c>
-      <c r="BQ199">
-        <v>2</v>
-      </c>
-      <c r="BR199">
-        <v>2</v>
-      </c>
-      <c r="BS199">
-        <v>2</v>
-      </c>
-      <c r="BT199">
-        <v>2</v>
-      </c>
-      <c r="BU199">
-        <v>2</v>
-      </c>
-      <c r="BV199">
-        <v>2</v>
-      </c>
-      <c r="BW199">
-        <v>1</v>
-      </c>
-      <c r="BX199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY199" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ199">
-        <v>2</v>
-      </c>
-      <c r="CA199">
-        <v>6</v>
-      </c>
-      <c r="CB199">
-        <v>6</v>
-      </c>
-      <c r="CC199">
-        <v>2</v>
-      </c>
-      <c r="CD199">
-        <v>3</v>
-      </c>
-      <c r="CE199">
-        <v>6</v>
-      </c>
-      <c r="CF199">
-        <v>6</v>
-      </c>
-      <c r="CG199">
-        <v>1</v>
-      </c>
-      <c r="CH199">
-        <v>4</v>
-      </c>
-      <c r="CI199">
-        <v>5</v>
-      </c>
-      <c r="CJ199">
-        <v>2</v>
-      </c>
-      <c r="CK199">
-        <v>2</v>
-      </c>
-      <c r="CL199">
-        <v>3</v>
-      </c>
-      <c r="CM199">
-        <v>2</v>
+        <v>94185</v>
       </c>
       <c r="CO199" t="inlineStr">
         <is>
-          <t>lup_055</t>
+          <t>lup_014</t>
         </is>
       </c>
       <c r="CP199">
@@ -44723,52 +44723,52 @@
         </is>
       </c>
       <c r="CS199">
-        <v>1.057995591204785</v>
+        <v>-0.01800923352507124</v>
       </c>
       <c r="CT199">
-        <v>0.631472179378184</v>
+        <v>0.04745966591604113</v>
       </c>
       <c r="CU199">
-        <v>0.2264179169762452</v>
+        <v>0.06116857509351407</v>
       </c>
       <c r="CV199">
-        <v>0.9633250066981153</v>
+        <v>0.0008082664082571031</v>
       </c>
       <c r="CW199">
-        <v>0.5021841800460352</v>
+        <v>0.09717642096226413</v>
       </c>
       <c r="CX199">
-        <v>0.588839194940014</v>
+        <v>0.9522707856278587</v>
       </c>
       <c r="CY199">
-        <v>0.03290478520216784</v>
+        <v>0.2235431141649703</v>
       </c>
       <c r="CZ199">
-        <v>0.0294080144752244</v>
+        <v>0.5021435494326213</v>
       </c>
       <c r="DA199">
-        <v>688.4782678086534</v>
+        <v>325.3783125221683</v>
       </c>
       <c r="DB199">
-        <v>758.6743040084156</v>
+        <v>500.893157180158</v>
       </c>
       <c r="DC199">
-        <v>1111.648572496126</v>
+        <v>961.330111498923</v>
       </c>
       <c r="DD199">
-        <v>453.6581438365121</v>
+        <v>242.6176188504557</v>
       </c>
       <c r="DE199">
-        <v>598.2678080913053</v>
+        <v>441.3178636353562</v>
       </c>
       <c r="DF199">
-        <v>8589.260613124121</v>
+        <v>10059.79881636455</v>
       </c>
       <c r="DG199">
-        <v>248.2176720464151</v>
+        <v>285.0292095879738</v>
       </c>
       <c r="DH199">
-        <v>148.5164446411826</v>
+        <v>198.5512786569955</v>
       </c>
     </row>
     <row r="200">
@@ -45057,8 +45057,164 @@
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
+      <c r="P202">
+        <v>11</v>
+      </c>
       <c r="Q202">
         <v>94185</v>
+      </c>
+      <c r="R202">
+        <v>3438</v>
+      </c>
+      <c r="S202">
+        <v>7</v>
+      </c>
+      <c r="T202">
+        <v>5</v>
+      </c>
+      <c r="U202">
+        <v>6</v>
+      </c>
+      <c r="V202">
+        <v>6</v>
+      </c>
+      <c r="W202">
+        <v>3</v>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y202">
+        <v>3</v>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA202">
+        <v>4</v>
+      </c>
+      <c r="AB202">
+        <v>35</v>
+      </c>
+      <c r="BD202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BE202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF202">
+        <v>1</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>3</v>
+      </c>
+      <c r="BI202">
+        <v>3</v>
+      </c>
+      <c r="BJ202">
+        <v>3</v>
+      </c>
+      <c r="BK202">
+        <v>3</v>
+      </c>
+      <c r="BL202">
+        <v>3</v>
+      </c>
+      <c r="BM202">
+        <v>3</v>
+      </c>
+      <c r="BN202">
+        <v>3</v>
+      </c>
+      <c r="BO202">
+        <v>3</v>
+      </c>
+      <c r="BP202">
+        <v>1</v>
+      </c>
+      <c r="BQ202">
+        <v>1</v>
+      </c>
+      <c r="BR202">
+        <v>1</v>
+      </c>
+      <c r="BS202">
+        <v>2</v>
+      </c>
+      <c r="BT202">
+        <v>2</v>
+      </c>
+      <c r="BU202">
+        <v>1</v>
+      </c>
+      <c r="BV202">
+        <v>2</v>
+      </c>
+      <c r="BW202">
+        <v>2</v>
+      </c>
+      <c r="BX202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BZ202">
+        <v>6</v>
+      </c>
+      <c r="CA202">
+        <v>6</v>
+      </c>
+      <c r="CB202">
+        <v>6</v>
+      </c>
+      <c r="CC202">
+        <v>5</v>
+      </c>
+      <c r="CD202">
+        <v>6</v>
+      </c>
+      <c r="CE202">
+        <v>4</v>
+      </c>
+      <c r="CF202">
+        <v>4</v>
+      </c>
+      <c r="CG202">
+        <v>4</v>
+      </c>
+      <c r="CH202">
+        <v>3</v>
+      </c>
+      <c r="CI202">
+        <v>5</v>
+      </c>
+      <c r="CJ202">
+        <v>2</v>
+      </c>
+      <c r="CK202">
+        <v>5</v>
+      </c>
+      <c r="CL202">
+        <v>3</v>
+      </c>
+      <c r="CM202">
+        <v>4</v>
       </c>
       <c r="CO202" t="inlineStr">
         <is>
@@ -45175,164 +45331,8 @@
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P203">
-        <v>11</v>
-      </c>
       <c r="Q203">
         <v>94185</v>
-      </c>
-      <c r="R203">
-        <v>3438</v>
-      </c>
-      <c r="S203">
-        <v>7</v>
-      </c>
-      <c r="T203">
-        <v>5</v>
-      </c>
-      <c r="U203">
-        <v>6</v>
-      </c>
-      <c r="V203">
-        <v>6</v>
-      </c>
-      <c r="W203">
-        <v>3</v>
-      </c>
-      <c r="X203" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y203">
-        <v>3</v>
-      </c>
-      <c r="Z203" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA203">
-        <v>4</v>
-      </c>
-      <c r="AB203">
-        <v>35</v>
-      </c>
-      <c r="BD203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BE203" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF203">
-        <v>1</v>
-      </c>
-      <c r="BG203">
-        <v>3</v>
-      </c>
-      <c r="BH203">
-        <v>3</v>
-      </c>
-      <c r="BI203">
-        <v>3</v>
-      </c>
-      <c r="BJ203">
-        <v>3</v>
-      </c>
-      <c r="BK203">
-        <v>3</v>
-      </c>
-      <c r="BL203">
-        <v>3</v>
-      </c>
-      <c r="BM203">
-        <v>3</v>
-      </c>
-      <c r="BN203">
-        <v>3</v>
-      </c>
-      <c r="BO203">
-        <v>3</v>
-      </c>
-      <c r="BP203">
-        <v>1</v>
-      </c>
-      <c r="BQ203">
-        <v>1</v>
-      </c>
-      <c r="BR203">
-        <v>1</v>
-      </c>
-      <c r="BS203">
-        <v>2</v>
-      </c>
-      <c r="BT203">
-        <v>2</v>
-      </c>
-      <c r="BU203">
-        <v>1</v>
-      </c>
-      <c r="BV203">
-        <v>2</v>
-      </c>
-      <c r="BW203">
-        <v>2</v>
-      </c>
-      <c r="BX203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BY203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BZ203">
-        <v>6</v>
-      </c>
-      <c r="CA203">
-        <v>6</v>
-      </c>
-      <c r="CB203">
-        <v>6</v>
-      </c>
-      <c r="CC203">
-        <v>5</v>
-      </c>
-      <c r="CD203">
-        <v>6</v>
-      </c>
-      <c r="CE203">
-        <v>4</v>
-      </c>
-      <c r="CF203">
-        <v>4</v>
-      </c>
-      <c r="CG203">
-        <v>4</v>
-      </c>
-      <c r="CH203">
-        <v>3</v>
-      </c>
-      <c r="CI203">
-        <v>5</v>
-      </c>
-      <c r="CJ203">
-        <v>2</v>
-      </c>
-      <c r="CK203">
-        <v>5</v>
-      </c>
-      <c r="CL203">
-        <v>3</v>
-      </c>
-      <c r="CM203">
-        <v>4</v>
       </c>
       <c r="CO203" t="inlineStr">
         <is>
@@ -45430,27 +45430,270 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline_002</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I204" s="2">
-        <v>44858.33333333333</v>
+        <v>44959.37244212963</v>
       </c>
       <c r="J204" s="2">
-        <v>44858.45833333333</v>
+        <v>44959.49744212963</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
+      <c r="P204">
+        <v>11</v>
+      </c>
       <c r="Q204">
-        <v>94185</v>
+        <v>95032</v>
+      </c>
+      <c r="R204">
+        <v>3438</v>
+      </c>
+      <c r="S204">
+        <v>6</v>
+      </c>
+      <c r="T204">
+        <v>3</v>
+      </c>
+      <c r="U204">
+        <v>6</v>
+      </c>
+      <c r="V204">
+        <v>4</v>
+      </c>
+      <c r="W204">
+        <v>3</v>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Y204">
+        <v>3</v>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA204">
+        <v>6</v>
+      </c>
+      <c r="AB204">
+        <v>30</v>
+      </c>
+      <c r="AC204">
+        <v>2</v>
+      </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
+      <c r="AE204">
+        <v>2</v>
+      </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
+      <c r="AG204">
+        <v>1</v>
+      </c>
+      <c r="AH204">
+        <v>2</v>
+      </c>
+      <c r="AI204">
+        <v>1</v>
+      </c>
+      <c r="AJ204" t="inlineStr">
+        <is>
+          <t>Hals og bryst</t>
+        </is>
+      </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
+      <c r="AM204">
+        <v>0</v>
+      </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
+      <c r="AO204">
+        <v>2</v>
+      </c>
+      <c r="AP204">
+        <v>0</v>
+      </c>
+      <c r="AQ204">
+        <v>2</v>
+      </c>
+      <c r="AR204">
+        <v>2</v>
+      </c>
+      <c r="AS204">
+        <v>0</v>
+      </c>
+      <c r="AT204">
+        <v>0</v>
+      </c>
+      <c r="AU204">
+        <v>0</v>
+      </c>
+      <c r="AV204">
+        <v>1</v>
+      </c>
+      <c r="AW204">
+        <v>1</v>
+      </c>
+      <c r="AX204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY204">
+        <v>3</v>
+      </c>
+      <c r="AZ204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA204">
+        <v>2</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>5</v>
+      </c>
+      <c r="BD204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BE204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF204">
+        <v>1</v>
+      </c>
+      <c r="BG204">
+        <v>3</v>
+      </c>
+      <c r="BH204">
+        <v>3</v>
+      </c>
+      <c r="BI204">
+        <v>2</v>
+      </c>
+      <c r="BJ204">
+        <v>3</v>
+      </c>
+      <c r="BK204">
+        <v>2</v>
+      </c>
+      <c r="BL204">
+        <v>3</v>
+      </c>
+      <c r="BM204">
+        <v>3</v>
+      </c>
+      <c r="BN204">
+        <v>3</v>
+      </c>
+      <c r="BO204">
+        <v>3</v>
+      </c>
+      <c r="BP204">
+        <v>2</v>
+      </c>
+      <c r="BQ204">
+        <v>1</v>
+      </c>
+      <c r="BR204">
+        <v>2</v>
+      </c>
+      <c r="BS204">
+        <v>2</v>
+      </c>
+      <c r="BT204">
+        <v>2</v>
+      </c>
+      <c r="BU204">
+        <v>1</v>
+      </c>
+      <c r="BV204">
+        <v>1</v>
+      </c>
+      <c r="BW204">
+        <v>1</v>
+      </c>
+      <c r="BX204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BZ204">
+        <v>3</v>
+      </c>
+      <c r="CA204">
+        <v>6</v>
+      </c>
+      <c r="CB204">
+        <v>6</v>
+      </c>
+      <c r="CC204">
+        <v>5</v>
+      </c>
+      <c r="CD204">
+        <v>6</v>
+      </c>
+      <c r="CE204">
+        <v>5</v>
+      </c>
+      <c r="CF204">
+        <v>3</v>
+      </c>
+      <c r="CG204">
+        <v>4</v>
+      </c>
+      <c r="CH204">
+        <v>3</v>
+      </c>
+      <c r="CI204">
+        <v>5</v>
+      </c>
+      <c r="CJ204">
+        <v>1</v>
+      </c>
+      <c r="CK204">
+        <v>5</v>
+      </c>
+      <c r="CL204">
+        <v>3</v>
+      </c>
+      <c r="CM204">
+        <v>5</v>
       </c>
       <c r="CO204" t="inlineStr">
         <is>
@@ -45548,7 +45791,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Visit 5 - Follow-Up</t>
+          <t>Visit 7 - 82Rb Pet-CT</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -45557,261 +45800,18 @@
         </is>
       </c>
       <c r="I205" s="2">
-        <v>44959.37244212963</v>
+        <v>45187.63540509259</v>
       </c>
       <c r="J205" s="2">
-        <v>44959.49744212963</v>
+        <v>45187.65623842593</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P205">
-        <v>11</v>
-      </c>
       <c r="Q205">
-        <v>95032</v>
-      </c>
-      <c r="R205">
-        <v>3438</v>
-      </c>
-      <c r="S205">
-        <v>6</v>
-      </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>6</v>
-      </c>
-      <c r="V205">
-        <v>4</v>
-      </c>
-      <c r="W205">
-        <v>3</v>
-      </c>
-      <c r="X205" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y205">
-        <v>3</v>
-      </c>
-      <c r="Z205" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA205">
-        <v>6</v>
-      </c>
-      <c r="AB205">
-        <v>30</v>
-      </c>
-      <c r="AC205">
-        <v>2</v>
-      </c>
-      <c r="AD205">
-        <v>0</v>
-      </c>
-      <c r="AE205">
-        <v>2</v>
-      </c>
-      <c r="AF205">
-        <v>0</v>
-      </c>
-      <c r="AG205">
-        <v>1</v>
-      </c>
-      <c r="AH205">
-        <v>2</v>
-      </c>
-      <c r="AI205">
-        <v>1</v>
-      </c>
-      <c r="AJ205" t="inlineStr">
-        <is>
-          <t>Hals og bryst</t>
-        </is>
-      </c>
-      <c r="AK205">
-        <v>0</v>
-      </c>
-      <c r="AL205">
-        <v>0</v>
-      </c>
-      <c r="AM205">
-        <v>0</v>
-      </c>
-      <c r="AN205">
-        <v>0</v>
-      </c>
-      <c r="AO205">
-        <v>2</v>
-      </c>
-      <c r="AP205">
-        <v>0</v>
-      </c>
-      <c r="AQ205">
-        <v>2</v>
-      </c>
-      <c r="AR205">
-        <v>2</v>
-      </c>
-      <c r="AS205">
-        <v>0</v>
-      </c>
-      <c r="AT205">
-        <v>0</v>
-      </c>
-      <c r="AU205">
-        <v>0</v>
-      </c>
-      <c r="AV205">
-        <v>1</v>
-      </c>
-      <c r="AW205">
-        <v>1</v>
-      </c>
-      <c r="AX205" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY205">
-        <v>3</v>
-      </c>
-      <c r="AZ205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA205">
-        <v>2</v>
-      </c>
-      <c r="BB205">
-        <v>0</v>
-      </c>
-      <c r="BC205">
-        <v>5</v>
-      </c>
-      <c r="BD205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BE205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF205">
-        <v>1</v>
-      </c>
-      <c r="BG205">
-        <v>3</v>
-      </c>
-      <c r="BH205">
-        <v>3</v>
-      </c>
-      <c r="BI205">
-        <v>2</v>
-      </c>
-      <c r="BJ205">
-        <v>3</v>
-      </c>
-      <c r="BK205">
-        <v>2</v>
-      </c>
-      <c r="BL205">
-        <v>3</v>
-      </c>
-      <c r="BM205">
-        <v>3</v>
-      </c>
-      <c r="BN205">
-        <v>3</v>
-      </c>
-      <c r="BO205">
-        <v>3</v>
-      </c>
-      <c r="BP205">
-        <v>2</v>
-      </c>
-      <c r="BQ205">
-        <v>1</v>
-      </c>
-      <c r="BR205">
-        <v>2</v>
-      </c>
-      <c r="BS205">
-        <v>2</v>
-      </c>
-      <c r="BT205">
-        <v>2</v>
-      </c>
-      <c r="BU205">
-        <v>1</v>
-      </c>
-      <c r="BV205">
-        <v>1</v>
-      </c>
-      <c r="BW205">
-        <v>1</v>
-      </c>
-      <c r="BX205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BY205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BZ205">
-        <v>3</v>
-      </c>
-      <c r="CA205">
-        <v>6</v>
-      </c>
-      <c r="CB205">
-        <v>6</v>
-      </c>
-      <c r="CC205">
-        <v>5</v>
-      </c>
-      <c r="CD205">
-        <v>6</v>
-      </c>
-      <c r="CE205">
-        <v>5</v>
-      </c>
-      <c r="CF205">
-        <v>3</v>
-      </c>
-      <c r="CG205">
-        <v>4</v>
-      </c>
-      <c r="CH205">
-        <v>3</v>
-      </c>
-      <c r="CI205">
-        <v>5</v>
-      </c>
-      <c r="CJ205">
-        <v>1</v>
-      </c>
-      <c r="CK205">
-        <v>5</v>
-      </c>
-      <c r="CL205">
-        <v>3</v>
-      </c>
-      <c r="CM205">
-        <v>5</v>
+        <v>97693</v>
       </c>
       <c r="CO205" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>212335</v>
+        <v>212949</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -45894,12 +45894,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Arb liste 142</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>LUP014</t>
+          <t>Lup044</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -45909,7 +45909,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Visit 7 - 82Rb Pet-CT</t>
+          <t>Visit 2 - Baseline</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -45918,22 +45918,265 @@
         </is>
       </c>
       <c r="I206" s="2">
-        <v>45187.63540509259</v>
+        <v>45215.3925</v>
       </c>
       <c r="J206" s="2">
-        <v>45187.65623842593</v>
+        <v>45215.5175</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
+      <c r="P206">
+        <v>11</v>
+      </c>
       <c r="Q206">
-        <v>97693</v>
+        <v>97962</v>
+      </c>
+      <c r="R206">
+        <v>3438</v>
+      </c>
+      <c r="S206">
+        <v>6</v>
+      </c>
+      <c r="T206">
+        <v>3</v>
+      </c>
+      <c r="U206">
+        <v>4</v>
+      </c>
+      <c r="V206">
+        <v>4</v>
+      </c>
+      <c r="W206">
+        <v>5</v>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y206">
+        <v>5</v>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA206">
+        <v>5</v>
+      </c>
+      <c r="AB206">
+        <v>20</v>
+      </c>
+      <c r="AC206">
+        <v>1</v>
+      </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
+      <c r="AE206">
+        <v>3</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>2</v>
+      </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
+      <c r="AI206">
+        <v>1</v>
+      </c>
+      <c r="AJ206" t="inlineStr">
+        <is>
+          <t>bryst og nakke</t>
+        </is>
+      </c>
+      <c r="AK206">
+        <v>2</v>
+      </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
+      <c r="AM206">
+        <v>2</v>
+      </c>
+      <c r="AN206">
+        <v>1</v>
+      </c>
+      <c r="AO206">
+        <v>0</v>
+      </c>
+      <c r="AP206">
+        <v>0</v>
+      </c>
+      <c r="AQ206">
+        <v>1</v>
+      </c>
+      <c r="AR206">
+        <v>2</v>
+      </c>
+      <c r="AS206">
+        <v>1</v>
+      </c>
+      <c r="AT206">
+        <v>0</v>
+      </c>
+      <c r="AU206">
+        <v>0</v>
+      </c>
+      <c r="AV206">
+        <v>2</v>
+      </c>
+      <c r="AW206">
+        <v>3</v>
+      </c>
+      <c r="AX206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY206">
+        <v>2</v>
+      </c>
+      <c r="AZ206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA206">
+        <v>2</v>
+      </c>
+      <c r="BB206">
+        <v>1</v>
+      </c>
+      <c r="BC206">
+        <v>3</v>
+      </c>
+      <c r="BD206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BE206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF206">
+        <v>2</v>
+      </c>
+      <c r="BG206">
+        <v>3</v>
+      </c>
+      <c r="BH206">
+        <v>2</v>
+      </c>
+      <c r="BI206">
+        <v>3</v>
+      </c>
+      <c r="BJ206">
+        <v>3</v>
+      </c>
+      <c r="BK206">
+        <v>2</v>
+      </c>
+      <c r="BL206">
+        <v>3</v>
+      </c>
+      <c r="BM206">
+        <v>3</v>
+      </c>
+      <c r="BN206">
+        <v>3</v>
+      </c>
+      <c r="BO206">
+        <v>3</v>
+      </c>
+      <c r="BP206">
+        <v>1</v>
+      </c>
+      <c r="BQ206">
+        <v>1</v>
+      </c>
+      <c r="BR206">
+        <v>2</v>
+      </c>
+      <c r="BS206">
+        <v>1</v>
+      </c>
+      <c r="BT206">
+        <v>1</v>
+      </c>
+      <c r="BU206">
+        <v>1</v>
+      </c>
+      <c r="BV206">
+        <v>1</v>
+      </c>
+      <c r="BW206">
+        <v>1</v>
+      </c>
+      <c r="BX206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BZ206">
+        <v>4</v>
+      </c>
+      <c r="CA206">
+        <v>5</v>
+      </c>
+      <c r="CB206">
+        <v>3</v>
+      </c>
+      <c r="CC206">
+        <v>4</v>
+      </c>
+      <c r="CD206">
+        <v>5</v>
+      </c>
+      <c r="CE206">
+        <v>3</v>
+      </c>
+      <c r="CF206">
+        <v>3</v>
+      </c>
+      <c r="CG206">
+        <v>4</v>
+      </c>
+      <c r="CH206">
+        <v>1</v>
+      </c>
+      <c r="CI206">
+        <v>5</v>
+      </c>
+      <c r="CJ206">
+        <v>2</v>
+      </c>
+      <c r="CK206">
+        <v>4</v>
+      </c>
+      <c r="CL206">
+        <v>3</v>
+      </c>
+      <c r="CM206">
+        <v>2</v>
       </c>
       <c r="CO206" t="inlineStr">
         <is>
-          <t>lup_014</t>
+          <t>lup_044</t>
         </is>
       </c>
       <c r="CP206">
@@ -45948,52 +46191,52 @@
         </is>
       </c>
       <c r="CS206">
-        <v>-0.01800923352507124</v>
+        <v>-0.3361465692054014</v>
       </c>
       <c r="CT206">
-        <v>0.04745966591604113</v>
+        <v>-0.05294083148619365</v>
       </c>
       <c r="CU206">
-        <v>0.06116857509351407</v>
+        <v>0.08895753491513772</v>
       </c>
       <c r="CV206">
-        <v>0.0008082664082571031</v>
+        <v>-0.2665194811861738</v>
       </c>
       <c r="CW206">
-        <v>0.09717642096226413</v>
+        <v>-0.08782116807512756</v>
       </c>
       <c r="CX206">
-        <v>0.9522707856278587</v>
+        <v>0.4464518759829768</v>
       </c>
       <c r="CY206">
-        <v>0.2235431141649703</v>
+        <v>0.07959881460682798</v>
       </c>
       <c r="CZ206">
-        <v>0.5021435494326213</v>
+        <v>0.03375915463126739</v>
       </c>
       <c r="DA206">
-        <v>325.3783125221683</v>
+        <v>216.1347441174957</v>
       </c>
       <c r="DB206">
-        <v>500.893157180158</v>
+        <v>443.774085453583</v>
       </c>
       <c r="DC206">
-        <v>961.330111498923</v>
+        <v>979.4942402276076</v>
       </c>
       <c r="DD206">
-        <v>242.6176188504557</v>
+        <v>167.6700977220063</v>
       </c>
       <c r="DE206">
-        <v>441.3178636353562</v>
+        <v>373.0330100966503</v>
       </c>
       <c r="DF206">
-        <v>10059.79881636455</v>
+        <v>7688.572093389653</v>
       </c>
       <c r="DG206">
-        <v>285.0292095879738</v>
+        <v>249.5644631316524</v>
       </c>
       <c r="DH206">
-        <v>198.5512786569955</v>
+        <v>149.0511831373644</v>
       </c>
     </row>
     <row r="207">
@@ -46027,7 +46270,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -46036,10 +46279,10 @@
         </is>
       </c>
       <c r="I207" s="2">
-        <v>45215.3925</v>
+        <v>45315.45820601852</v>
       </c>
       <c r="J207" s="2">
-        <v>45215.5175</v>
+        <v>45315.58320601852</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -46050,232 +46293,232 @@
         <v>11</v>
       </c>
       <c r="Q207">
-        <v>97962</v>
+        <v>98650</v>
       </c>
       <c r="R207">
         <v>3438</v>
       </c>
       <c r="S207">
+        <v>3</v>
+      </c>
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>3</v>
+      </c>
+      <c r="V207">
+        <v>3</v>
+      </c>
+      <c r="W207">
+        <v>1</v>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y207">
+        <v>2</v>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA207">
+        <v>1</v>
+      </c>
+      <c r="AB207">
+        <v>70</v>
+      </c>
+      <c r="AC207">
+        <v>1</v>
+      </c>
+      <c r="AD207">
+        <v>0</v>
+      </c>
+      <c r="AE207">
+        <v>1</v>
+      </c>
+      <c r="AF207">
+        <v>0</v>
+      </c>
+      <c r="AG207">
+        <v>1</v>
+      </c>
+      <c r="AH207">
+        <v>0</v>
+      </c>
+      <c r="AI207">
+        <v>1</v>
+      </c>
+      <c r="AJ207" t="inlineStr">
+        <is>
+          <t>Nakke, Knæ, Brystkasse.</t>
+        </is>
+      </c>
+      <c r="AK207">
+        <v>0</v>
+      </c>
+      <c r="AL207">
+        <v>0</v>
+      </c>
+      <c r="AM207">
+        <v>0</v>
+      </c>
+      <c r="AN207">
+        <v>0</v>
+      </c>
+      <c r="AO207">
+        <v>0</v>
+      </c>
+      <c r="AP207">
+        <v>0</v>
+      </c>
+      <c r="AQ207">
+        <v>1</v>
+      </c>
+      <c r="AR207">
+        <v>0</v>
+      </c>
+      <c r="AS207">
+        <v>0</v>
+      </c>
+      <c r="AT207">
+        <v>0</v>
+      </c>
+      <c r="AU207">
+        <v>0</v>
+      </c>
+      <c r="AV207">
+        <v>1</v>
+      </c>
+      <c r="AW207">
+        <v>1</v>
+      </c>
+      <c r="AX207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY207">
+        <v>1</v>
+      </c>
+      <c r="AZ207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA207">
+        <v>2</v>
+      </c>
+      <c r="BB207">
+        <v>2</v>
+      </c>
+      <c r="BC207">
+        <v>2</v>
+      </c>
+      <c r="BD207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BE207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF207">
+        <v>3</v>
+      </c>
+      <c r="BG207">
+        <v>3</v>
+      </c>
+      <c r="BH207">
+        <v>3</v>
+      </c>
+      <c r="BI207">
+        <v>3</v>
+      </c>
+      <c r="BJ207">
+        <v>3</v>
+      </c>
+      <c r="BK207">
+        <v>3</v>
+      </c>
+      <c r="BL207">
+        <v>3</v>
+      </c>
+      <c r="BM207">
+        <v>3</v>
+      </c>
+      <c r="BN207">
+        <v>3</v>
+      </c>
+      <c r="BO207">
+        <v>3</v>
+      </c>
+      <c r="BP207">
+        <v>2</v>
+      </c>
+      <c r="BQ207">
+        <v>1</v>
+      </c>
+      <c r="BR207">
+        <v>1</v>
+      </c>
+      <c r="BS207">
+        <v>2</v>
+      </c>
+      <c r="BT207">
+        <v>2</v>
+      </c>
+      <c r="BU207">
+        <v>2</v>
+      </c>
+      <c r="BV207">
+        <v>1</v>
+      </c>
+      <c r="BW207">
+        <v>1</v>
+      </c>
+      <c r="BX207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BY207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ207">
+        <v>2</v>
+      </c>
+      <c r="CA207">
+        <v>4</v>
+      </c>
+      <c r="CB207">
         <v>6</v>
       </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
+      <c r="CC207">
+        <v>5</v>
+      </c>
+      <c r="CD207">
+        <v>3</v>
+      </c>
+      <c r="CE207">
         <v>4</v>
       </c>
-      <c r="V207">
-        <v>4</v>
-      </c>
-      <c r="W207">
-        <v>5</v>
-      </c>
-      <c r="X207" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y207">
-        <v>5</v>
-      </c>
-      <c r="Z207" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA207">
-        <v>5</v>
-      </c>
-      <c r="AB207">
-        <v>20</v>
-      </c>
-      <c r="AC207">
-        <v>1</v>
-      </c>
-      <c r="AD207">
-        <v>0</v>
-      </c>
-      <c r="AE207">
-        <v>3</v>
-      </c>
-      <c r="AF207">
-        <v>0</v>
-      </c>
-      <c r="AG207">
-        <v>2</v>
-      </c>
-      <c r="AH207">
-        <v>0</v>
-      </c>
-      <c r="AI207">
-        <v>1</v>
-      </c>
-      <c r="AJ207" t="inlineStr">
-        <is>
-          <t>bryst og nakke</t>
-        </is>
-      </c>
-      <c r="AK207">
-        <v>2</v>
-      </c>
-      <c r="AL207">
-        <v>0</v>
-      </c>
-      <c r="AM207">
-        <v>2</v>
-      </c>
-      <c r="AN207">
-        <v>1</v>
-      </c>
-      <c r="AO207">
-        <v>0</v>
-      </c>
-      <c r="AP207">
-        <v>0</v>
-      </c>
-      <c r="AQ207">
-        <v>1</v>
-      </c>
-      <c r="AR207">
-        <v>2</v>
-      </c>
-      <c r="AS207">
-        <v>1</v>
-      </c>
-      <c r="AT207">
-        <v>0</v>
-      </c>
-      <c r="AU207">
-        <v>0</v>
-      </c>
-      <c r="AV207">
-        <v>2</v>
-      </c>
-      <c r="AW207">
-        <v>3</v>
-      </c>
-      <c r="AX207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AY207">
-        <v>2</v>
-      </c>
-      <c r="AZ207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA207">
-        <v>2</v>
-      </c>
-      <c r="BB207">
-        <v>1</v>
-      </c>
-      <c r="BC207">
-        <v>3</v>
-      </c>
-      <c r="BD207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BE207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF207">
-        <v>2</v>
-      </c>
-      <c r="BG207">
-        <v>3</v>
-      </c>
-      <c r="BH207">
-        <v>2</v>
-      </c>
-      <c r="BI207">
-        <v>3</v>
-      </c>
-      <c r="BJ207">
-        <v>3</v>
-      </c>
-      <c r="BK207">
-        <v>2</v>
-      </c>
-      <c r="BL207">
-        <v>3</v>
-      </c>
-      <c r="BM207">
-        <v>3</v>
-      </c>
-      <c r="BN207">
-        <v>3</v>
-      </c>
-      <c r="BO207">
-        <v>3</v>
-      </c>
-      <c r="BP207">
-        <v>1</v>
-      </c>
-      <c r="BQ207">
-        <v>1</v>
-      </c>
-      <c r="BR207">
-        <v>2</v>
-      </c>
-      <c r="BS207">
-        <v>1</v>
-      </c>
-      <c r="BT207">
-        <v>1</v>
-      </c>
-      <c r="BU207">
-        <v>1</v>
-      </c>
-      <c r="BV207">
-        <v>1</v>
-      </c>
-      <c r="BW207">
-        <v>1</v>
-      </c>
-      <c r="BX207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BY207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BZ207">
-        <v>4</v>
-      </c>
-      <c r="CA207">
-        <v>5</v>
-      </c>
-      <c r="CB207">
-        <v>3</v>
-      </c>
-      <c r="CC207">
-        <v>4</v>
-      </c>
-      <c r="CD207">
-        <v>5</v>
-      </c>
-      <c r="CE207">
-        <v>3</v>
-      </c>
       <c r="CF207">
         <v>3</v>
       </c>
       <c r="CG207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CH207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI207">
         <v>5</v>
@@ -46287,7 +46530,7 @@
         <v>4</v>
       </c>
       <c r="CL207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM207">
         <v>2</v>
@@ -46359,7 +46602,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>212949</v>
+        <v>212964</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -46373,12 +46616,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Arb liste 142</t>
+          <t>Arb liste 145</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Lup044</t>
+          <t>Lup045</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -46388,7 +46631,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Visit 5 - Follow-Up</t>
+          <t>Visit 2 - Baseline</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -46397,10 +46640,10 @@
         </is>
       </c>
       <c r="I208" s="2">
-        <v>45315.45820601852</v>
+        <v>45222.49008101852</v>
       </c>
       <c r="J208" s="2">
-        <v>45315.58320601852</v>
+        <v>45222.61508101852</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -46411,235 +46654,235 @@
         <v>11</v>
       </c>
       <c r="Q208">
-        <v>98650</v>
+        <v>98035</v>
       </c>
       <c r="R208">
         <v>3438</v>
       </c>
       <c r="S208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T208">
         <v>3</v>
       </c>
       <c r="U208">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X208" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y208">
+        <v>7</v>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA208">
+        <v>7</v>
+      </c>
+      <c r="AB208">
+        <v>30</v>
+      </c>
+      <c r="AC208">
+        <v>2</v>
+      </c>
+      <c r="AD208">
+        <v>0</v>
+      </c>
+      <c r="AE208">
+        <v>3</v>
+      </c>
+      <c r="AF208">
+        <v>0</v>
+      </c>
+      <c r="AG208">
+        <v>1</v>
+      </c>
+      <c r="AH208">
+        <v>0</v>
+      </c>
+      <c r="AI208">
+        <v>2</v>
+      </c>
+      <c r="AJ208" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="AK208">
+        <v>2</v>
+      </c>
+      <c r="AL208">
+        <v>2</v>
+      </c>
+      <c r="AM208">
+        <v>1</v>
+      </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
+      <c r="AO208">
+        <v>1</v>
+      </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
+      <c r="AQ208">
+        <v>2</v>
+      </c>
+      <c r="AR208">
+        <v>0</v>
+      </c>
+      <c r="AS208">
+        <v>2</v>
+      </c>
+      <c r="AT208">
+        <v>0</v>
+      </c>
+      <c r="AU208">
+        <v>0</v>
+      </c>
+      <c r="AV208">
+        <v>3</v>
+      </c>
+      <c r="AW208">
+        <v>1</v>
+      </c>
+      <c r="AX208" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y208">
-        <v>2</v>
-      </c>
-      <c r="Z208" t="inlineStr">
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA208">
+        <v>3</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>4</v>
+      </c>
+      <c r="BD208" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AA208">
-        <v>1</v>
-      </c>
-      <c r="AB208">
-        <v>70</v>
-      </c>
-      <c r="AC208">
-        <v>1</v>
-      </c>
-      <c r="AD208">
-        <v>0</v>
-      </c>
-      <c r="AE208">
-        <v>1</v>
-      </c>
-      <c r="AF208">
-        <v>0</v>
-      </c>
-      <c r="AG208">
-        <v>1</v>
-      </c>
-      <c r="AH208">
-        <v>0</v>
-      </c>
-      <c r="AI208">
-        <v>1</v>
-      </c>
-      <c r="AJ208" t="inlineStr">
-        <is>
-          <t>Nakke, Knæ, Brystkasse.</t>
-        </is>
-      </c>
-      <c r="AK208">
-        <v>0</v>
-      </c>
-      <c r="AL208">
-        <v>0</v>
-      </c>
-      <c r="AM208">
-        <v>0</v>
-      </c>
-      <c r="AN208">
-        <v>0</v>
-      </c>
-      <c r="AO208">
-        <v>0</v>
-      </c>
-      <c r="AP208">
-        <v>0</v>
-      </c>
-      <c r="AQ208">
-        <v>1</v>
-      </c>
-      <c r="AR208">
-        <v>0</v>
-      </c>
-      <c r="AS208">
-        <v>0</v>
-      </c>
-      <c r="AT208">
-        <v>0</v>
-      </c>
-      <c r="AU208">
-        <v>0</v>
-      </c>
-      <c r="AV208">
-        <v>1</v>
-      </c>
-      <c r="AW208">
-        <v>1</v>
-      </c>
-      <c r="AX208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY208">
-        <v>1</v>
-      </c>
-      <c r="AZ208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA208">
-        <v>2</v>
-      </c>
-      <c r="BB208">
-        <v>2</v>
-      </c>
-      <c r="BC208">
-        <v>2</v>
-      </c>
-      <c r="BD208" t="inlineStr">
+      <c r="BE208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BF208">
+        <v>1</v>
+      </c>
+      <c r="BG208">
+        <v>2</v>
+      </c>
+      <c r="BH208">
+        <v>2</v>
+      </c>
+      <c r="BI208">
+        <v>3</v>
+      </c>
+      <c r="BJ208">
+        <v>3</v>
+      </c>
+      <c r="BK208">
+        <v>3</v>
+      </c>
+      <c r="BL208">
+        <v>3</v>
+      </c>
+      <c r="BM208">
+        <v>3</v>
+      </c>
+      <c r="BN208">
+        <v>3</v>
+      </c>
+      <c r="BO208">
+        <v>2</v>
+      </c>
+      <c r="BP208">
+        <v>2</v>
+      </c>
+      <c r="BQ208">
+        <v>1</v>
+      </c>
+      <c r="BR208">
+        <v>1</v>
+      </c>
+      <c r="BS208">
+        <v>1</v>
+      </c>
+      <c r="BT208">
+        <v>2</v>
+      </c>
+      <c r="BU208">
+        <v>2</v>
+      </c>
+      <c r="BV208">
+        <v>2</v>
+      </c>
+      <c r="BW208">
+        <v>3</v>
+      </c>
+      <c r="BX208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY208" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="BE208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF208">
-        <v>3</v>
-      </c>
-      <c r="BG208">
-        <v>3</v>
-      </c>
-      <c r="BH208">
-        <v>3</v>
-      </c>
-      <c r="BI208">
-        <v>3</v>
-      </c>
-      <c r="BJ208">
-        <v>3</v>
-      </c>
-      <c r="BK208">
-        <v>3</v>
-      </c>
-      <c r="BL208">
-        <v>3</v>
-      </c>
-      <c r="BM208">
-        <v>3</v>
-      </c>
-      <c r="BN208">
-        <v>3</v>
-      </c>
-      <c r="BO208">
-        <v>3</v>
-      </c>
-      <c r="BP208">
-        <v>2</v>
-      </c>
-      <c r="BQ208">
-        <v>1</v>
-      </c>
-      <c r="BR208">
-        <v>1</v>
-      </c>
-      <c r="BS208">
-        <v>2</v>
-      </c>
-      <c r="BT208">
-        <v>2</v>
-      </c>
-      <c r="BU208">
-        <v>2</v>
-      </c>
-      <c r="BV208">
-        <v>1</v>
-      </c>
-      <c r="BW208">
-        <v>1</v>
-      </c>
-      <c r="BX208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BY208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BZ208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CA208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB208">
+        <v>5</v>
+      </c>
+      <c r="CC208">
+        <v>3</v>
+      </c>
+      <c r="CD208">
         <v>6</v>
-      </c>
-      <c r="CC208">
-        <v>5</v>
-      </c>
-      <c r="CD208">
-        <v>3</v>
       </c>
       <c r="CE208">
         <v>4</v>
       </c>
       <c r="CF208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CH208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CJ208">
         <v>2</v>
@@ -46651,11 +46894,11 @@
         <v>4</v>
       </c>
       <c r="CM208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CO208" t="inlineStr">
         <is>
-          <t>lup_044</t>
+          <t>lup_045</t>
         </is>
       </c>
       <c r="CP208">
@@ -46666,56 +46909,56 @@
       </c>
       <c r="CR208" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>Pingvin</t>
         </is>
       </c>
       <c r="CS208">
-        <v>-0.3361465692054014</v>
+        <v>-0.1481850070805685</v>
       </c>
       <c r="CT208">
-        <v>-0.05294083148619365</v>
+        <v>0.02958622518541608</v>
       </c>
       <c r="CU208">
-        <v>0.08895753491513772</v>
+        <v>0.2630334585940345</v>
       </c>
       <c r="CV208">
-        <v>-0.2665194811861738</v>
+        <v>0.01320646371719468</v>
       </c>
       <c r="CW208">
-        <v>-0.08782116807512756</v>
+        <v>0.04961975139148696</v>
       </c>
       <c r="CX208">
-        <v>0.4464518759829768</v>
+        <v>0.416031360052035</v>
       </c>
       <c r="CY208">
-        <v>0.07959881460682798</v>
+        <v>0.08943858071956348</v>
       </c>
       <c r="CZ208">
-        <v>0.03375915463126739</v>
+        <v>-0.04579974589274657</v>
       </c>
       <c r="DA208">
-        <v>216.1347441174957</v>
+        <v>272.4015649228922</v>
       </c>
       <c r="DB208">
-        <v>443.774085453583</v>
+        <v>473.7165739611416</v>
       </c>
       <c r="DC208">
-        <v>979.4942402276076</v>
+        <v>1138.16221450414</v>
       </c>
       <c r="DD208">
-        <v>167.6700977220063</v>
+        <v>222.1139541988721</v>
       </c>
       <c r="DE208">
-        <v>373.0330100966503</v>
+        <v>421.8591331088921</v>
       </c>
       <c r="DF208">
-        <v>7688.572093389653</v>
+        <v>7683.989687643189</v>
       </c>
       <c r="DG208">
-        <v>249.5644631316524</v>
+        <v>256.1881395403873</v>
       </c>
       <c r="DH208">
-        <v>149.0511831373644</v>
+        <v>137.9422515630777</v>
       </c>
     </row>
     <row r="209">
@@ -46749,7 +46992,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -46758,10 +47001,10 @@
         </is>
       </c>
       <c r="I209" s="2">
-        <v>45222.49008101852</v>
+        <v>45314.32981481482</v>
       </c>
       <c r="J209" s="2">
-        <v>45222.61508101852</v>
+        <v>45314.45481481482</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -46772,19 +47015,19 @@
         <v>11</v>
       </c>
       <c r="Q209">
-        <v>98035</v>
+        <v>98629</v>
       </c>
       <c r="R209">
         <v>3438</v>
       </c>
       <c r="S209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V209">
         <v>5</v>
@@ -46794,7 +47037,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y209">
@@ -46809,7 +47052,7 @@
         <v>7</v>
       </c>
       <c r="AB209">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC209">
         <v>2</v>
@@ -46818,7 +47061,7 @@
         <v>0</v>
       </c>
       <c r="AE209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF209">
         <v>0</v>
@@ -46830,18 +47073,13 @@
         <v>0</v>
       </c>
       <c r="AI209">
-        <v>2</v>
-      </c>
-      <c r="AJ209" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM209">
         <v>1</v>
@@ -46856,13 +47094,13 @@
         <v>0</v>
       </c>
       <c r="AQ209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT209">
         <v>0</v>
@@ -46871,7 +47109,7 @@
         <v>0</v>
       </c>
       <c r="AV209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW209">
         <v>1</v>
@@ -46882,21 +47120,21 @@
         </is>
       </c>
       <c r="AY209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC209">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD209" t="inlineStr">
         <is>
@@ -46909,7 +47147,7 @@
         </is>
       </c>
       <c r="BF209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG209">
         <v>2</v>
@@ -46939,7 +47177,7 @@
         <v>2</v>
       </c>
       <c r="BP209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ209">
         <v>1</v>
@@ -46960,23 +47198,23 @@
         <v>2</v>
       </c>
       <c r="BW209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BY209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BZ209">
         <v>5</v>
       </c>
       <c r="CA209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB209">
         <v>5</v>
@@ -46985,31 +47223,31 @@
         <v>3</v>
       </c>
       <c r="CD209">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE209">
+        <v>5</v>
+      </c>
+      <c r="CF209">
+        <v>2</v>
+      </c>
+      <c r="CG209">
+        <v>3</v>
+      </c>
+      <c r="CH209">
+        <v>1</v>
+      </c>
+      <c r="CI209">
         <v>4</v>
       </c>
-      <c r="CF209">
-        <v>2</v>
-      </c>
-      <c r="CG209">
-        <v>4</v>
-      </c>
-      <c r="CH209">
-        <v>2</v>
-      </c>
-      <c r="CI209">
-        <v>3</v>
-      </c>
       <c r="CJ209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK209">
         <v>4</v>
       </c>
       <c r="CL209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM209">
         <v>4</v>
@@ -47081,7 +47319,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>212964</v>
+        <v>212982</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -47095,12 +47333,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Arb liste 145</t>
+          <t>arb liste 138</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Lup045</t>
+          <t>Lup047</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -47110,7 +47348,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Visit 5 - Follow-Up</t>
+          <t>Visit 2 - Baseline</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -47119,10 +47357,10 @@
         </is>
       </c>
       <c r="I210" s="2">
-        <v>45314.32981481482</v>
+        <v>45252.49969907408</v>
       </c>
       <c r="J210" s="2">
-        <v>45314.45481481482</v>
+        <v>45252.62469907408</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -47133,7 +47371,7 @@
         <v>11</v>
       </c>
       <c r="Q210">
-        <v>98629</v>
+        <v>98270</v>
       </c>
       <c r="R210">
         <v>3438</v>
@@ -47142,24 +47380,24 @@
         <v>6</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U210">
         <v>7</v>
       </c>
       <c r="V210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W210">
         <v>7</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="Y210">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z210" t="inlineStr">
         <is>
@@ -47167,7 +47405,7 @@
         </is>
       </c>
       <c r="AA210">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB210">
         <v>20</v>
@@ -47176,31 +47414,36 @@
         <v>2</v>
       </c>
       <c r="AD210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF210">
         <v>0</v>
       </c>
       <c r="AG210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH210">
         <v>0</v>
       </c>
       <c r="AI210">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ210" t="inlineStr">
+        <is>
+          <t>Arm/Bryst</t>
+        </is>
       </c>
       <c r="AK210">
         <v>3</v>
       </c>
       <c r="AL210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN210">
         <v>0</v>
@@ -47209,13 +47452,13 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ210">
         <v>3</v>
       </c>
       <c r="AR210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS210">
         <v>3</v>
@@ -47227,152 +47470,152 @@
         <v>0</v>
       </c>
       <c r="AV210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX210" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY210">
+        <v>2</v>
+      </c>
+      <c r="AZ210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>2</v>
+      </c>
+      <c r="BC210">
+        <v>5</v>
+      </c>
+      <c r="BD210" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BE210" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AY210">
-        <v>2</v>
-      </c>
-      <c r="AZ210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA210">
-        <v>2</v>
-      </c>
-      <c r="BB210">
-        <v>2</v>
-      </c>
-      <c r="BC210">
-        <v>7</v>
-      </c>
-      <c r="BD210" t="inlineStr">
+      <c r="BF210">
+        <v>2</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>3</v>
+      </c>
+      <c r="BI210">
+        <v>3</v>
+      </c>
+      <c r="BJ210">
+        <v>3</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>3</v>
+      </c>
+      <c r="BM210">
+        <v>3</v>
+      </c>
+      <c r="BN210">
+        <v>3</v>
+      </c>
+      <c r="BO210">
+        <v>3</v>
+      </c>
+      <c r="BP210">
+        <v>1</v>
+      </c>
+      <c r="BQ210">
+        <v>2</v>
+      </c>
+      <c r="BR210">
+        <v>2</v>
+      </c>
+      <c r="BS210">
+        <v>1</v>
+      </c>
+      <c r="BT210">
+        <v>2</v>
+      </c>
+      <c r="BU210">
+        <v>2</v>
+      </c>
+      <c r="BV210">
+        <v>1</v>
+      </c>
+      <c r="BW210">
+        <v>4</v>
+      </c>
+      <c r="BX210" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="BE210" t="inlineStr">
+      <c r="BY210" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="BF210">
-        <v>2</v>
-      </c>
-      <c r="BG210">
-        <v>2</v>
-      </c>
-      <c r="BH210">
-        <v>2</v>
-      </c>
-      <c r="BI210">
-        <v>3</v>
-      </c>
-      <c r="BJ210">
-        <v>3</v>
-      </c>
-      <c r="BK210">
-        <v>3</v>
-      </c>
-      <c r="BL210">
-        <v>3</v>
-      </c>
-      <c r="BM210">
-        <v>3</v>
-      </c>
-      <c r="BN210">
-        <v>3</v>
-      </c>
-      <c r="BO210">
-        <v>2</v>
-      </c>
-      <c r="BP210">
-        <v>1</v>
-      </c>
-      <c r="BQ210">
-        <v>1</v>
-      </c>
-      <c r="BR210">
-        <v>1</v>
-      </c>
-      <c r="BS210">
-        <v>1</v>
-      </c>
-      <c r="BT210">
-        <v>2</v>
-      </c>
-      <c r="BU210">
-        <v>2</v>
-      </c>
-      <c r="BV210">
-        <v>2</v>
-      </c>
-      <c r="BW210">
-        <v>2</v>
-      </c>
-      <c r="BX210" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BY210" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="BZ210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CC210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD210">
         <v>5</v>
       </c>
       <c r="CE210">
+        <v>1</v>
+      </c>
+      <c r="CF210">
+        <v>2</v>
+      </c>
+      <c r="CG210">
         <v>5</v>
       </c>
-      <c r="CF210">
-        <v>2</v>
-      </c>
-      <c r="CG210">
-        <v>3</v>
-      </c>
       <c r="CH210">
         <v>1</v>
       </c>
       <c r="CI210">
+        <v>1</v>
+      </c>
+      <c r="CJ210">
         <v>4</v>
       </c>
-      <c r="CJ210">
-        <v>1</v>
-      </c>
       <c r="CK210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM210">
         <v>4</v>
       </c>
       <c r="CO210" t="inlineStr">
         <is>
-          <t>lup_045</t>
+          <t>lup_047</t>
         </is>
       </c>
       <c r="CP210">
@@ -47387,52 +47630,52 @@
         </is>
       </c>
       <c r="CS210">
-        <v>-0.1481850070805685</v>
+        <v>10.06104466158541</v>
       </c>
       <c r="CT210">
-        <v>0.02958622518541608</v>
+        <v>2.284345279145299</v>
       </c>
       <c r="CU210">
-        <v>0.2630334585940345</v>
+        <v>0.9548342187941065</v>
       </c>
       <c r="CV210">
-        <v>0.01320646371719468</v>
+        <v>16.87303029183049</v>
       </c>
       <c r="CW210">
-        <v>0.04961975139148696</v>
+        <v>3.599222183314014</v>
       </c>
       <c r="CX210">
-        <v>0.416031360052035</v>
+        <v>0.428913728335968</v>
       </c>
       <c r="CY210">
-        <v>0.08943858071956348</v>
+        <v>0.2164485128150657</v>
       </c>
       <c r="CZ210">
-        <v>-0.04579974589274657</v>
+        <v>0.3759863711158326</v>
       </c>
       <c r="DA210">
-        <v>272.4015649228922</v>
+        <v>3319.716222593072</v>
       </c>
       <c r="DB210">
-        <v>473.7165739611416</v>
+        <v>1479.252625467673</v>
       </c>
       <c r="DC210">
-        <v>1138.16221450414</v>
+        <v>1765.34732663192</v>
       </c>
       <c r="DD210">
-        <v>222.1139541988721</v>
+        <v>2085.741439636782</v>
       </c>
       <c r="DE210">
-        <v>421.8591331088921</v>
+        <v>1167.550047948987</v>
       </c>
       <c r="DF210">
-        <v>7683.989687643189</v>
+        <v>6821.117201293558</v>
       </c>
       <c r="DG210">
-        <v>256.1881395403873</v>
+        <v>268.9912134567161</v>
       </c>
       <c r="DH210">
-        <v>137.9422515630777</v>
+        <v>176.8292907340586</v>
       </c>
     </row>
     <row r="211">
@@ -47466,7 +47709,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -47475,10 +47718,10 @@
         </is>
       </c>
       <c r="I211" s="2">
-        <v>45252.49969907408</v>
+        <v>45351.41064814814</v>
       </c>
       <c r="J211" s="2">
-        <v>45252.62469907408</v>
+        <v>45351.53564814814</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -47489,13 +47732,13 @@
         <v>11</v>
       </c>
       <c r="Q211">
-        <v>98270</v>
+        <v>98840</v>
       </c>
       <c r="R211">
         <v>3438</v>
       </c>
       <c r="S211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T211">
         <v>6</v>
@@ -47507,32 +47750,32 @@
         <v>6</v>
       </c>
       <c r="W211">
+        <v>6</v>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y211">
         <v>7</v>
       </c>
-      <c r="X211" t="inlineStr">
+      <c r="Z211" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y211">
-        <v>5</v>
-      </c>
-      <c r="Z211" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AA211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB211">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE211">
         <v>3</v>
@@ -47547,39 +47790,34 @@
         <v>0</v>
       </c>
       <c r="AI211">
-        <v>1</v>
-      </c>
-      <c r="AJ211" t="inlineStr">
-        <is>
-          <t>Arm/Bryst</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="AK211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN211">
         <v>0</v>
       </c>
       <c r="AO211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ211">
         <v>3</v>
       </c>
       <c r="AR211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT211">
         <v>0</v>
@@ -47595,31 +47833,31 @@
       </c>
       <c r="AX211" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY211">
+        <v>1</v>
+      </c>
+      <c r="AZ211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA211">
+        <v>3</v>
+      </c>
+      <c r="BB211">
+        <v>1</v>
+      </c>
+      <c r="BC211">
+        <v>4</v>
+      </c>
+      <c r="BD211" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AY211">
-        <v>2</v>
-      </c>
-      <c r="AZ211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BA211">
-        <v>3</v>
-      </c>
-      <c r="BB211">
-        <v>2</v>
-      </c>
-      <c r="BC211">
-        <v>5</v>
-      </c>
-      <c r="BD211" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="BE211" t="inlineStr">
         <is>
           <t>2</t>
@@ -47656,7 +47894,7 @@
         <v>3</v>
       </c>
       <c r="BP211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ211">
         <v>2</v>
@@ -47671,65 +47909,65 @@
         <v>2</v>
       </c>
       <c r="BU211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BX211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BY211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BZ211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA211">
         <v>3</v>
       </c>
       <c r="CB211">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CC211">
         <v>4</v>
       </c>
       <c r="CD211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CF211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CH211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ211">
         <v>4</v>
       </c>
       <c r="CK211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL211">
         <v>2</v>
       </c>
       <c r="CM211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO211" t="inlineStr">
         <is>
@@ -47825,267 +48063,29 @@
           <t>F</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Visit 5 - Follow-Up</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I212" s="2">
-        <v>45351.41064814814</v>
-      </c>
-      <c r="J212" s="2">
-        <v>45351.53564814814</v>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
+        </is>
+      </c>
+      <c r="M212" s="2">
+        <v>45445</v>
+      </c>
+      <c r="N212" s="2">
+        <v>45475</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P212">
-        <v>11</v>
-      </c>
-      <c r="Q212">
-        <v>98840</v>
-      </c>
-      <c r="R212">
-        <v>3438</v>
-      </c>
-      <c r="S212">
-        <v>7</v>
-      </c>
-      <c r="T212">
-        <v>6</v>
-      </c>
-      <c r="U212">
-        <v>7</v>
-      </c>
-      <c r="V212">
-        <v>6</v>
-      </c>
-      <c r="W212">
-        <v>6</v>
-      </c>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y212">
-        <v>7</v>
-      </c>
-      <c r="Z212" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA212">
-        <v>6</v>
-      </c>
-      <c r="AB212">
-        <v>30</v>
-      </c>
-      <c r="AC212">
-        <v>1</v>
-      </c>
-      <c r="AD212">
-        <v>0</v>
-      </c>
-      <c r="AE212">
-        <v>3</v>
-      </c>
-      <c r="AF212">
-        <v>0</v>
-      </c>
-      <c r="AG212">
-        <v>0</v>
-      </c>
-      <c r="AH212">
-        <v>0</v>
-      </c>
-      <c r="AI212">
-        <v>0</v>
-      </c>
-      <c r="AK212">
-        <v>2</v>
-      </c>
-      <c r="AL212">
-        <v>0</v>
-      </c>
-      <c r="AM212">
-        <v>3</v>
-      </c>
-      <c r="AN212">
-        <v>0</v>
-      </c>
-      <c r="AO212">
-        <v>0</v>
-      </c>
-      <c r="AP212">
-        <v>0</v>
-      </c>
-      <c r="AQ212">
-        <v>3</v>
-      </c>
-      <c r="AR212">
-        <v>1</v>
-      </c>
-      <c r="AS212">
-        <v>2</v>
-      </c>
-      <c r="AT212">
-        <v>0</v>
-      </c>
-      <c r="AU212">
-        <v>0</v>
-      </c>
-      <c r="AV212">
-        <v>3</v>
-      </c>
-      <c r="AW212">
-        <v>3</v>
-      </c>
-      <c r="AX212" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY212">
-        <v>1</v>
-      </c>
-      <c r="AZ212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA212">
-        <v>3</v>
-      </c>
-      <c r="BB212">
-        <v>1</v>
-      </c>
-      <c r="BC212">
-        <v>4</v>
-      </c>
-      <c r="BD212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BE212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF212">
-        <v>2</v>
-      </c>
-      <c r="BG212">
-        <v>3</v>
-      </c>
-      <c r="BH212">
-        <v>3</v>
-      </c>
-      <c r="BI212">
-        <v>3</v>
-      </c>
-      <c r="BJ212">
-        <v>3</v>
-      </c>
-      <c r="BK212">
-        <v>2</v>
-      </c>
-      <c r="BL212">
-        <v>3</v>
-      </c>
-      <c r="BM212">
-        <v>3</v>
-      </c>
-      <c r="BN212">
-        <v>3</v>
-      </c>
-      <c r="BO212">
-        <v>3</v>
-      </c>
-      <c r="BP212">
-        <v>2</v>
-      </c>
-      <c r="BQ212">
-        <v>2</v>
-      </c>
-      <c r="BR212">
-        <v>2</v>
-      </c>
-      <c r="BS212">
-        <v>1</v>
-      </c>
-      <c r="BT212">
-        <v>2</v>
-      </c>
-      <c r="BU212">
-        <v>1</v>
-      </c>
-      <c r="BV212">
-        <v>2</v>
-      </c>
-      <c r="BW212">
-        <v>2</v>
-      </c>
-      <c r="BX212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BY212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ212">
-        <v>3</v>
-      </c>
-      <c r="CA212">
-        <v>3</v>
-      </c>
-      <c r="CB212">
-        <v>6</v>
-      </c>
-      <c r="CC212">
-        <v>4</v>
-      </c>
-      <c r="CD212">
-        <v>3</v>
-      </c>
-      <c r="CE212">
-        <v>3</v>
-      </c>
-      <c r="CF212">
-        <v>3</v>
-      </c>
-      <c r="CG212">
-        <v>2</v>
-      </c>
-      <c r="CH212">
-        <v>2</v>
-      </c>
-      <c r="CI212">
-        <v>2</v>
-      </c>
-      <c r="CJ212">
-        <v>4</v>
-      </c>
-      <c r="CK212">
-        <v>4</v>
-      </c>
-      <c r="CL212">
-        <v>2</v>
-      </c>
-      <c r="CM212">
-        <v>3</v>
+      <c r="CN212">
+        <v>1519</v>
       </c>
       <c r="CO212" t="inlineStr">
         <is>
@@ -48188,14 +48188,14 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M213" s="2">
-        <v>45445</v>
+        <v>45475</v>
       </c>
       <c r="N213" s="2">
-        <v>45475</v>
+        <v>45535</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -48203,7 +48203,7 @@
         </is>
       </c>
       <c r="CN213">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CO213" t="inlineStr">
         <is>
@@ -48272,7 +48272,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>212982</v>
+        <v>212460</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -48286,46 +48286,284 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>arb liste 138</t>
+          <t>Arb Liste 35</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Lup047</t>
+          <t>Lup020</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M214" s="2">
-        <v>45475</v>
-      </c>
-      <c r="N214" s="2">
-        <v>45535</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I214" s="2">
+        <v>44949.37899305555</v>
+      </c>
+      <c r="J214" s="2">
+        <v>44949.50399305555</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="CN214">
-        <v>1518</v>
+      <c r="P214">
+        <v>11</v>
+      </c>
+      <c r="Q214">
+        <v>94882</v>
+      </c>
+      <c r="R214">
+        <v>3438</v>
+      </c>
+      <c r="S214">
+        <v>7</v>
+      </c>
+      <c r="T214">
+        <v>5</v>
+      </c>
+      <c r="U214">
+        <v>6</v>
+      </c>
+      <c r="V214">
+        <v>3</v>
+      </c>
+      <c r="W214">
+        <v>5</v>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y214">
+        <v>5</v>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA214">
+        <v>2</v>
+      </c>
+      <c r="AB214">
+        <v>20</v>
+      </c>
+      <c r="AC214">
+        <v>0</v>
+      </c>
+      <c r="AD214">
+        <v>2</v>
+      </c>
+      <c r="AE214">
+        <v>3</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>0</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AK214">
+        <v>0</v>
+      </c>
+      <c r="AL214">
+        <v>0</v>
+      </c>
+      <c r="AM214">
+        <v>0</v>
+      </c>
+      <c r="AN214">
+        <v>1</v>
+      </c>
+      <c r="AO214">
+        <v>1</v>
+      </c>
+      <c r="AP214">
+        <v>1</v>
+      </c>
+      <c r="AQ214">
+        <v>0</v>
+      </c>
+      <c r="AR214">
+        <v>0</v>
+      </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <v>0</v>
+      </c>
+      <c r="AU214">
+        <v>0</v>
+      </c>
+      <c r="AV214">
+        <v>0</v>
+      </c>
+      <c r="AW214">
+        <v>0</v>
+      </c>
+      <c r="AX214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>2</v>
+      </c>
+      <c r="BD214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BE214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF214">
+        <v>3</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>3</v>
+      </c>
+      <c r="BI214">
+        <v>3</v>
+      </c>
+      <c r="BJ214">
+        <v>3</v>
+      </c>
+      <c r="BK214">
+        <v>3</v>
+      </c>
+      <c r="BL214">
+        <v>3</v>
+      </c>
+      <c r="BM214">
+        <v>3</v>
+      </c>
+      <c r="BN214">
+        <v>3</v>
+      </c>
+      <c r="BO214">
+        <v>3</v>
+      </c>
+      <c r="BP214">
+        <v>2</v>
+      </c>
+      <c r="BQ214">
+        <v>2</v>
+      </c>
+      <c r="BR214">
+        <v>2</v>
+      </c>
+      <c r="BS214">
+        <v>2</v>
+      </c>
+      <c r="BT214">
+        <v>2</v>
+      </c>
+      <c r="BU214">
+        <v>2</v>
+      </c>
+      <c r="BV214">
+        <v>2</v>
+      </c>
+      <c r="BW214">
+        <v>1</v>
+      </c>
+      <c r="BX214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ214">
+        <v>2</v>
+      </c>
+      <c r="CA214">
+        <v>6</v>
+      </c>
+      <c r="CB214">
+        <v>6</v>
+      </c>
+      <c r="CC214">
+        <v>2</v>
+      </c>
+      <c r="CD214">
+        <v>2</v>
+      </c>
+      <c r="CE214">
+        <v>6</v>
+      </c>
+      <c r="CF214">
+        <v>6</v>
+      </c>
+      <c r="CG214">
+        <v>2</v>
+      </c>
+      <c r="CH214">
+        <v>2</v>
+      </c>
+      <c r="CI214">
+        <v>5</v>
+      </c>
+      <c r="CJ214">
+        <v>5</v>
+      </c>
+      <c r="CK214">
+        <v>1</v>
+      </c>
+      <c r="CL214">
+        <v>4</v>
+      </c>
+      <c r="CM214">
+        <v>2</v>
       </c>
       <c r="CO214" t="inlineStr">
         <is>
-          <t>lup_047</t>
+          <t>lup_020</t>
         </is>
       </c>
       <c r="CP214">
@@ -48336,56 +48574,56 @@
       </c>
       <c r="CR214" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>Søløve</t>
         </is>
       </c>
       <c r="CS214">
-        <v>10.06104466158541</v>
+        <v>0.5445967262297848</v>
       </c>
       <c r="CT214">
-        <v>2.284345279145299</v>
+        <v>0.3345399380758275</v>
       </c>
       <c r="CU214">
-        <v>0.9548342187941065</v>
+        <v>0.535179379800344</v>
       </c>
       <c r="CV214">
-        <v>16.87303029183049</v>
+        <v>0.4368155828536888</v>
       </c>
       <c r="CW214">
-        <v>3.599222183314014</v>
+        <v>0.3141974926567364</v>
       </c>
       <c r="CX214">
-        <v>0.428913728335968</v>
+        <v>1.110011383863873</v>
       </c>
       <c r="CY214">
-        <v>0.2164485128150657</v>
+        <v>0.04171199138466929</v>
       </c>
       <c r="CZ214">
-        <v>0.3759863711158326</v>
+        <v>0.08162521302181341</v>
       </c>
       <c r="DA214">
-        <v>3319.716222593072</v>
+        <v>514.0165268384802</v>
       </c>
       <c r="DB214">
-        <v>1479.252625467673</v>
+        <v>619.0152143680709</v>
       </c>
       <c r="DC214">
-        <v>1765.34732663192</v>
+        <v>1366.262194268107</v>
       </c>
       <c r="DD214">
-        <v>2085.741439636782</v>
+        <v>342.1386897464419</v>
       </c>
       <c r="DE214">
-        <v>1167.550047948987</v>
+        <v>520.1158492518909</v>
       </c>
       <c r="DF214">
-        <v>6821.117201293558</v>
+        <v>10818.85268708173</v>
       </c>
       <c r="DG214">
-        <v>268.9912134567161</v>
+        <v>236.5523863001163</v>
       </c>
       <c r="DH214">
-        <v>176.8292907340586</v>
+        <v>153.7960927942974</v>
       </c>
     </row>
     <row r="215">
@@ -48419,7 +48657,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -48428,10 +48666,10 @@
         </is>
       </c>
       <c r="I215" s="2">
-        <v>44949.37899305555</v>
+        <v>45043.43678240741</v>
       </c>
       <c r="J215" s="2">
-        <v>44949.50399305555</v>
+        <v>45043.56178240741</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -48442,25 +48680,25 @@
         <v>11</v>
       </c>
       <c r="Q215">
-        <v>94882</v>
+        <v>95943</v>
       </c>
       <c r="R215">
         <v>3438</v>
       </c>
       <c r="S215">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T215">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V215">
         <v>3</v>
       </c>
       <c r="W215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
@@ -48468,27 +48706,27 @@
         </is>
       </c>
       <c r="Y215">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB215">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AC215">
         <v>0</v>
       </c>
       <c r="AD215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF215">
         <v>0</v>
@@ -48512,13 +48750,13 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ215">
         <v>0</v>
@@ -48527,7 +48765,7 @@
         <v>0</v>
       </c>
       <c r="AS215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT215">
         <v>0</v>
@@ -48551,94 +48789,94 @@
       </c>
       <c r="AZ215" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>1</v>
+      </c>
+      <c r="BD215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BE215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>3</v>
+      </c>
+      <c r="BH215">
+        <v>3</v>
+      </c>
+      <c r="BI215">
+        <v>3</v>
+      </c>
+      <c r="BJ215">
+        <v>3</v>
+      </c>
+      <c r="BK215">
+        <v>3</v>
+      </c>
+      <c r="BL215">
+        <v>3</v>
+      </c>
+      <c r="BM215">
+        <v>3</v>
+      </c>
+      <c r="BN215">
+        <v>3</v>
+      </c>
+      <c r="BO215">
+        <v>3</v>
+      </c>
+      <c r="BP215">
+        <v>2</v>
+      </c>
+      <c r="BQ215">
+        <v>2</v>
+      </c>
+      <c r="BR215">
+        <v>2</v>
+      </c>
+      <c r="BS215">
+        <v>2</v>
+      </c>
+      <c r="BT215">
+        <v>2</v>
+      </c>
+      <c r="BU215">
+        <v>2</v>
+      </c>
+      <c r="BV215">
+        <v>2</v>
+      </c>
+      <c r="BW215">
+        <v>1</v>
+      </c>
+      <c r="BX215" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BA215">
-        <v>0</v>
-      </c>
-      <c r="BB215">
-        <v>0</v>
-      </c>
-      <c r="BC215">
-        <v>2</v>
-      </c>
-      <c r="BD215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BE215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BF215">
-        <v>3</v>
-      </c>
-      <c r="BG215">
-        <v>3</v>
-      </c>
-      <c r="BH215">
-        <v>3</v>
-      </c>
-      <c r="BI215">
-        <v>3</v>
-      </c>
-      <c r="BJ215">
-        <v>3</v>
-      </c>
-      <c r="BK215">
-        <v>3</v>
-      </c>
-      <c r="BL215">
-        <v>3</v>
-      </c>
-      <c r="BM215">
-        <v>3</v>
-      </c>
-      <c r="BN215">
-        <v>3</v>
-      </c>
-      <c r="BO215">
-        <v>3</v>
-      </c>
-      <c r="BP215">
-        <v>2</v>
-      </c>
-      <c r="BQ215">
-        <v>2</v>
-      </c>
-      <c r="BR215">
-        <v>2</v>
-      </c>
-      <c r="BS215">
-        <v>2</v>
-      </c>
-      <c r="BT215">
-        <v>2</v>
-      </c>
-      <c r="BU215">
-        <v>2</v>
-      </c>
-      <c r="BV215">
-        <v>2</v>
-      </c>
-      <c r="BW215">
-        <v>1</v>
-      </c>
-      <c r="BX215" t="inlineStr">
+      <c r="BY215" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BY215" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BZ215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA215">
         <v>6</v>
@@ -48659,10 +48897,10 @@
         <v>6</v>
       </c>
       <c r="CG215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CI215">
         <v>5</v>
@@ -48671,7 +48909,7 @@
         <v>5</v>
       </c>
       <c r="CK215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CL215">
         <v>4</v>
@@ -48773,267 +49011,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Visit 5 - Follow-Up</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I216" s="2">
-        <v>45043.43678240741</v>
-      </c>
-      <c r="J216" s="2">
-        <v>45043.56178240741</v>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
+        </is>
+      </c>
+      <c r="M216" s="2">
+        <v>45314</v>
+      </c>
+      <c r="N216" s="2">
+        <v>45374</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P216">
-        <v>11</v>
-      </c>
-      <c r="Q216">
-        <v>95943</v>
-      </c>
-      <c r="R216">
-        <v>3438</v>
-      </c>
-      <c r="S216">
-        <v>6</v>
-      </c>
-      <c r="T216">
-        <v>3</v>
-      </c>
-      <c r="U216">
-        <v>4</v>
-      </c>
-      <c r="V216">
-        <v>3</v>
-      </c>
-      <c r="W216">
-        <v>4</v>
-      </c>
-      <c r="X216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y216">
-        <v>2</v>
-      </c>
-      <c r="Z216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA216">
-        <v>1</v>
-      </c>
-      <c r="AB216">
-        <v>60</v>
-      </c>
-      <c r="AC216">
-        <v>0</v>
-      </c>
-      <c r="AD216">
-        <v>3</v>
-      </c>
-      <c r="AE216">
-        <v>1</v>
-      </c>
-      <c r="AF216">
-        <v>0</v>
-      </c>
-      <c r="AG216">
-        <v>0</v>
-      </c>
-      <c r="AH216">
-        <v>0</v>
-      </c>
-      <c r="AI216">
-        <v>0</v>
-      </c>
-      <c r="AK216">
-        <v>0</v>
-      </c>
-      <c r="AL216">
-        <v>0</v>
-      </c>
-      <c r="AM216">
-        <v>0</v>
-      </c>
-      <c r="AN216">
-        <v>2</v>
-      </c>
-      <c r="AO216">
-        <v>0</v>
-      </c>
-      <c r="AP216">
-        <v>0</v>
-      </c>
-      <c r="AQ216">
-        <v>0</v>
-      </c>
-      <c r="AR216">
-        <v>0</v>
-      </c>
-      <c r="AS216">
-        <v>1</v>
-      </c>
-      <c r="AT216">
-        <v>0</v>
-      </c>
-      <c r="AU216">
-        <v>0</v>
-      </c>
-      <c r="AV216">
-        <v>0</v>
-      </c>
-      <c r="AW216">
-        <v>0</v>
-      </c>
-      <c r="AX216" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY216">
-        <v>0</v>
-      </c>
-      <c r="AZ216" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA216">
-        <v>0</v>
-      </c>
-      <c r="BB216">
-        <v>0</v>
-      </c>
-      <c r="BC216">
-        <v>1</v>
-      </c>
-      <c r="BD216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BE216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BF216">
-        <v>3</v>
-      </c>
-      <c r="BG216">
-        <v>3</v>
-      </c>
-      <c r="BH216">
-        <v>3</v>
-      </c>
-      <c r="BI216">
-        <v>3</v>
-      </c>
-      <c r="BJ216">
-        <v>3</v>
-      </c>
-      <c r="BK216">
-        <v>3</v>
-      </c>
-      <c r="BL216">
-        <v>3</v>
-      </c>
-      <c r="BM216">
-        <v>3</v>
-      </c>
-      <c r="BN216">
-        <v>3</v>
-      </c>
-      <c r="BO216">
-        <v>3</v>
-      </c>
-      <c r="BP216">
-        <v>2</v>
-      </c>
-      <c r="BQ216">
-        <v>2</v>
-      </c>
-      <c r="BR216">
-        <v>2</v>
-      </c>
-      <c r="BS216">
-        <v>2</v>
-      </c>
-      <c r="BT216">
-        <v>2</v>
-      </c>
-      <c r="BU216">
-        <v>2</v>
-      </c>
-      <c r="BV216">
-        <v>2</v>
-      </c>
-      <c r="BW216">
-        <v>1</v>
-      </c>
-      <c r="BX216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY216" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ216">
-        <v>1</v>
-      </c>
-      <c r="CA216">
-        <v>6</v>
-      </c>
-      <c r="CB216">
-        <v>6</v>
-      </c>
-      <c r="CC216">
-        <v>2</v>
-      </c>
-      <c r="CD216">
-        <v>2</v>
-      </c>
-      <c r="CE216">
-        <v>6</v>
-      </c>
-      <c r="CF216">
-        <v>6</v>
-      </c>
-      <c r="CG216">
-        <v>1</v>
-      </c>
-      <c r="CH216">
-        <v>4</v>
-      </c>
-      <c r="CI216">
-        <v>5</v>
-      </c>
-      <c r="CJ216">
-        <v>5</v>
-      </c>
-      <c r="CK216">
-        <v>5</v>
-      </c>
-      <c r="CL216">
-        <v>4</v>
-      </c>
-      <c r="CM216">
-        <v>2</v>
+      <c r="CN216">
+        <v>1517</v>
       </c>
       <c r="CO216" t="inlineStr">
         <is>
@@ -49136,14 +49136,14 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M217" s="2">
-        <v>45314</v>
+        <v>45374</v>
       </c>
       <c r="N217" s="2">
-        <v>45374</v>
+        <v>45404</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -49151,7 +49151,7 @@
         </is>
       </c>
       <c r="CN217">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="CO217" t="inlineStr">
         <is>
@@ -49254,14 +49254,14 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M218" s="2">
-        <v>45374</v>
+        <v>45404</v>
       </c>
       <c r="N218" s="2">
-        <v>45404</v>
+        <v>45464</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -49269,7 +49269,7 @@
         </is>
       </c>
       <c r="CN218">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CO218" t="inlineStr">
         <is>
@@ -49338,7 +49338,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>212460</v>
+        <v>212875</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -49352,46 +49352,284 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Arb Liste 35</t>
+          <t>Arb Liste 121</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Lup020</t>
+          <t>LUP041</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M219" s="2">
-        <v>45404</v>
-      </c>
-      <c r="N219" s="2">
-        <v>45464</v>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I219" s="2">
+        <v>45197.38888888889</v>
+      </c>
+      <c r="J219" s="2">
+        <v>45197.51388888889</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="CN219">
-        <v>1518</v>
+      <c r="P219">
+        <v>11</v>
+      </c>
+      <c r="Q219">
+        <v>97778</v>
+      </c>
+      <c r="R219">
+        <v>3438</v>
+      </c>
+      <c r="S219">
+        <v>7</v>
+      </c>
+      <c r="T219">
+        <v>7</v>
+      </c>
+      <c r="U219">
+        <v>7</v>
+      </c>
+      <c r="V219">
+        <v>7</v>
+      </c>
+      <c r="W219">
+        <v>7</v>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y219">
+        <v>7</v>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA219">
+        <v>7</v>
+      </c>
+      <c r="AB219">
+        <v>20</v>
+      </c>
+      <c r="AC219">
+        <v>1</v>
+      </c>
+      <c r="AD219">
+        <v>0</v>
+      </c>
+      <c r="AE219">
+        <v>3</v>
+      </c>
+      <c r="AF219">
+        <v>0</v>
+      </c>
+      <c r="AG219">
+        <v>1</v>
+      </c>
+      <c r="AH219">
+        <v>1</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AK219">
+        <v>0</v>
+      </c>
+      <c r="AL219">
+        <v>3</v>
+      </c>
+      <c r="AM219">
+        <v>0</v>
+      </c>
+      <c r="AN219">
+        <v>3</v>
+      </c>
+      <c r="AO219">
+        <v>0</v>
+      </c>
+      <c r="AP219">
+        <v>0</v>
+      </c>
+      <c r="AQ219">
+        <v>3</v>
+      </c>
+      <c r="AR219">
+        <v>1</v>
+      </c>
+      <c r="AS219">
+        <v>1</v>
+      </c>
+      <c r="AT219">
+        <v>0</v>
+      </c>
+      <c r="AU219">
+        <v>0</v>
+      </c>
+      <c r="AV219">
+        <v>3</v>
+      </c>
+      <c r="AW219">
+        <v>0</v>
+      </c>
+      <c r="AX219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY219">
+        <v>3</v>
+      </c>
+      <c r="AZ219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BF219">
+        <v>1</v>
+      </c>
+      <c r="BG219">
+        <v>2</v>
+      </c>
+      <c r="BH219">
+        <v>3</v>
+      </c>
+      <c r="BI219">
+        <v>2</v>
+      </c>
+      <c r="BJ219">
+        <v>3</v>
+      </c>
+      <c r="BK219">
+        <v>2</v>
+      </c>
+      <c r="BL219">
+        <v>2</v>
+      </c>
+      <c r="BM219">
+        <v>3</v>
+      </c>
+      <c r="BN219">
+        <v>3</v>
+      </c>
+      <c r="BO219">
+        <v>2</v>
+      </c>
+      <c r="BP219">
+        <v>1</v>
+      </c>
+      <c r="BQ219">
+        <v>1</v>
+      </c>
+      <c r="BR219">
+        <v>1</v>
+      </c>
+      <c r="BS219">
+        <v>1</v>
+      </c>
+      <c r="BT219">
+        <v>1</v>
+      </c>
+      <c r="BU219">
+        <v>1</v>
+      </c>
+      <c r="BV219">
+        <v>1</v>
+      </c>
+      <c r="BW219">
+        <v>4</v>
+      </c>
+      <c r="BX219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BY219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BZ219">
+        <v>3</v>
+      </c>
+      <c r="CA219">
+        <v>3</v>
+      </c>
+      <c r="CB219">
+        <v>5</v>
+      </c>
+      <c r="CC219">
+        <v>6</v>
+      </c>
+      <c r="CD219">
+        <v>6</v>
+      </c>
+      <c r="CE219">
+        <v>5</v>
+      </c>
+      <c r="CF219">
+        <v>2</v>
+      </c>
+      <c r="CG219">
+        <v>3</v>
+      </c>
+      <c r="CH219">
+        <v>1</v>
+      </c>
+      <c r="CI219">
+        <v>1</v>
+      </c>
+      <c r="CJ219">
+        <v>1</v>
+      </c>
+      <c r="CK219">
+        <v>5</v>
+      </c>
+      <c r="CL219">
+        <v>1</v>
+      </c>
+      <c r="CM219">
+        <v>5</v>
       </c>
       <c r="CO219" t="inlineStr">
         <is>
-          <t>lup_020</t>
+          <t>lup_041</t>
         </is>
       </c>
       <c r="CP219">
@@ -49406,52 +49644,52 @@
         </is>
       </c>
       <c r="CS219">
-        <v>0.5445967262297848</v>
+        <v>3.941657215551467</v>
       </c>
       <c r="CT219">
-        <v>0.3345399380758275</v>
+        <v>0.7489884219398232</v>
       </c>
       <c r="CU219">
-        <v>0.535179379800344</v>
+        <v>0.5920587170310189</v>
       </c>
       <c r="CV219">
-        <v>0.4368155828536888</v>
+        <v>7.183850565733477</v>
       </c>
       <c r="CW219">
-        <v>0.3141974926567364</v>
+        <v>1.049124213337703</v>
       </c>
       <c r="CX219">
-        <v>1.110011383863873</v>
+        <v>0.02984207146487079</v>
       </c>
       <c r="CY219">
-        <v>0.04171199138466929</v>
+        <v>0.3492920828426945</v>
       </c>
       <c r="CZ219">
-        <v>0.08162521302181341</v>
+        <v>0.4855180329070936</v>
       </c>
       <c r="DA219">
-        <v>514.0165268384802</v>
+        <v>1540.128465937451</v>
       </c>
       <c r="DB219">
-        <v>619.0152143680709</v>
+        <v>788.9325403828653</v>
       </c>
       <c r="DC219">
-        <v>1366.262194268107</v>
+        <v>1422.310375646395</v>
       </c>
       <c r="DD219">
-        <v>342.1386897464419</v>
+        <v>1089.072904204111</v>
       </c>
       <c r="DE219">
-        <v>520.1158492518909</v>
+        <v>720.6948157378359</v>
       </c>
       <c r="DF219">
-        <v>10818.85268708173</v>
+        <v>5346.77229391835</v>
       </c>
       <c r="DG219">
-        <v>236.5523863001163</v>
+        <v>314.9265082006075</v>
       </c>
       <c r="DH219">
-        <v>153.7960927942974</v>
+        <v>206.0814865141668</v>
       </c>
     </row>
     <row r="220">
@@ -49483,267 +49721,29 @@
           <t>F</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>Visit 2 - Baseline</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I220" s="2">
-        <v>45197.38888888889</v>
-      </c>
-      <c r="J220" s="2">
-        <v>45197.51388888889</v>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
+        </is>
+      </c>
+      <c r="M220" s="2">
+        <v>45312</v>
+      </c>
+      <c r="N220" s="2">
+        <v>45372</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P220">
-        <v>11</v>
-      </c>
-      <c r="Q220">
-        <v>97778</v>
-      </c>
-      <c r="R220">
-        <v>3438</v>
-      </c>
-      <c r="S220">
-        <v>7</v>
-      </c>
-      <c r="T220">
-        <v>7</v>
-      </c>
-      <c r="U220">
-        <v>7</v>
-      </c>
-      <c r="V220">
-        <v>7</v>
-      </c>
-      <c r="W220">
-        <v>7</v>
-      </c>
-      <c r="X220" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y220">
-        <v>7</v>
-      </c>
-      <c r="Z220" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA220">
-        <v>7</v>
-      </c>
-      <c r="AB220">
-        <v>20</v>
-      </c>
-      <c r="AC220">
-        <v>1</v>
-      </c>
-      <c r="AD220">
-        <v>0</v>
-      </c>
-      <c r="AE220">
-        <v>3</v>
-      </c>
-      <c r="AF220">
-        <v>0</v>
-      </c>
-      <c r="AG220">
-        <v>1</v>
-      </c>
-      <c r="AH220">
-        <v>1</v>
-      </c>
-      <c r="AI220">
-        <v>0</v>
-      </c>
-      <c r="AK220">
-        <v>0</v>
-      </c>
-      <c r="AL220">
-        <v>3</v>
-      </c>
-      <c r="AM220">
-        <v>0</v>
-      </c>
-      <c r="AN220">
-        <v>3</v>
-      </c>
-      <c r="AO220">
-        <v>0</v>
-      </c>
-      <c r="AP220">
-        <v>0</v>
-      </c>
-      <c r="AQ220">
-        <v>3</v>
-      </c>
-      <c r="AR220">
-        <v>1</v>
-      </c>
-      <c r="AS220">
-        <v>1</v>
-      </c>
-      <c r="AT220">
-        <v>0</v>
-      </c>
-      <c r="AU220">
-        <v>0</v>
-      </c>
-      <c r="AV220">
-        <v>3</v>
-      </c>
-      <c r="AW220">
-        <v>0</v>
-      </c>
-      <c r="AX220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY220">
-        <v>3</v>
-      </c>
-      <c r="AZ220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA220">
-        <v>3</v>
-      </c>
-      <c r="BB220">
-        <v>3</v>
-      </c>
-      <c r="BC220">
-        <v>7</v>
-      </c>
-      <c r="BD220" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BE220" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BF220">
-        <v>1</v>
-      </c>
-      <c r="BG220">
-        <v>2</v>
-      </c>
-      <c r="BH220">
-        <v>3</v>
-      </c>
-      <c r="BI220">
-        <v>2</v>
-      </c>
-      <c r="BJ220">
-        <v>3</v>
-      </c>
-      <c r="BK220">
-        <v>2</v>
-      </c>
-      <c r="BL220">
-        <v>2</v>
-      </c>
-      <c r="BM220">
-        <v>3</v>
-      </c>
-      <c r="BN220">
-        <v>3</v>
-      </c>
-      <c r="BO220">
-        <v>2</v>
-      </c>
-      <c r="BP220">
-        <v>1</v>
-      </c>
-      <c r="BQ220">
-        <v>1</v>
-      </c>
-      <c r="BR220">
-        <v>1</v>
-      </c>
-      <c r="BS220">
-        <v>1</v>
-      </c>
-      <c r="BT220">
-        <v>1</v>
-      </c>
-      <c r="BU220">
-        <v>1</v>
-      </c>
-      <c r="BV220">
-        <v>1</v>
-      </c>
-      <c r="BW220">
-        <v>4</v>
-      </c>
-      <c r="BX220" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BY220" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BZ220">
-        <v>3</v>
-      </c>
-      <c r="CA220">
-        <v>3</v>
-      </c>
-      <c r="CB220">
-        <v>5</v>
-      </c>
-      <c r="CC220">
-        <v>6</v>
-      </c>
-      <c r="CD220">
-        <v>6</v>
-      </c>
-      <c r="CE220">
-        <v>5</v>
-      </c>
-      <c r="CF220">
-        <v>2</v>
-      </c>
-      <c r="CG220">
-        <v>3</v>
-      </c>
-      <c r="CH220">
-        <v>1</v>
-      </c>
-      <c r="CI220">
-        <v>1</v>
-      </c>
-      <c r="CJ220">
-        <v>1</v>
-      </c>
-      <c r="CK220">
-        <v>5</v>
-      </c>
-      <c r="CL220">
-        <v>1</v>
-      </c>
-      <c r="CM220">
-        <v>5</v>
+      <c r="CN220">
+        <v>1517</v>
       </c>
       <c r="CO220" t="inlineStr">
         <is>
@@ -49846,14 +49846,14 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M221" s="2">
-        <v>45312</v>
+        <v>45372</v>
       </c>
       <c r="N221" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -49861,7 +49861,7 @@
         </is>
       </c>
       <c r="CN221">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="CO221" t="inlineStr">
         <is>
@@ -49964,14 +49964,14 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M222" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="N222" s="2">
-        <v>45402</v>
+        <v>45462</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         </is>
       </c>
       <c r="CN222">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CO222" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>212875</v>
+        <v>212838</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -50062,12 +50062,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Arb Liste 121</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>LUP041</t>
+          <t>LUP036</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -50075,33 +50075,276 @@
           <t>F</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M223" s="2">
-        <v>45402</v>
-      </c>
-      <c r="N223" s="2">
-        <v>45462</v>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I223" s="2">
+        <v>45161.32461805556</v>
+      </c>
+      <c r="J223" s="2">
+        <v>45161.44961805556</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="CN223">
-        <v>1518</v>
+      <c r="P223">
+        <v>11</v>
+      </c>
+      <c r="Q223">
+        <v>97074</v>
+      </c>
+      <c r="R223">
+        <v>3438</v>
+      </c>
+      <c r="S223">
+        <v>7</v>
+      </c>
+      <c r="T223">
+        <v>6</v>
+      </c>
+      <c r="U223">
+        <v>7</v>
+      </c>
+      <c r="V223">
+        <v>5</v>
+      </c>
+      <c r="W223">
+        <v>3</v>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Y223">
+        <v>6</v>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA223">
+        <v>7</v>
+      </c>
+      <c r="AB223">
+        <v>40</v>
+      </c>
+      <c r="AC223">
+        <v>2</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>3</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>2</v>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>Hals og Skulder</t>
+        </is>
+      </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
+      <c r="AL223">
+        <v>2</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
+      <c r="AQ223">
+        <v>0</v>
+      </c>
+      <c r="AR223">
+        <v>0</v>
+      </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0</v>
+      </c>
+      <c r="AU223">
+        <v>0</v>
+      </c>
+      <c r="AV223">
+        <v>0</v>
+      </c>
+      <c r="AW223">
+        <v>1</v>
+      </c>
+      <c r="AX223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY223">
+        <v>2</v>
+      </c>
+      <c r="AZ223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>1</v>
+      </c>
+      <c r="BC223">
+        <v>9</v>
+      </c>
+      <c r="BD223" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BE223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF223">
+        <v>1</v>
+      </c>
+      <c r="BG223">
+        <v>2</v>
+      </c>
+      <c r="BH223">
+        <v>3</v>
+      </c>
+      <c r="BI223">
+        <v>3</v>
+      </c>
+      <c r="BJ223">
+        <v>3</v>
+      </c>
+      <c r="BK223">
+        <v>3</v>
+      </c>
+      <c r="BL223">
+        <v>3</v>
+      </c>
+      <c r="BM223">
+        <v>3</v>
+      </c>
+      <c r="BN223">
+        <v>3</v>
+      </c>
+      <c r="BO223">
+        <v>3</v>
+      </c>
+      <c r="BP223">
+        <v>2</v>
+      </c>
+      <c r="BQ223">
+        <v>1</v>
+      </c>
+      <c r="BR223">
+        <v>1</v>
+      </c>
+      <c r="BS223">
+        <v>1</v>
+      </c>
+      <c r="BT223">
+        <v>2</v>
+      </c>
+      <c r="BU223">
+        <v>2</v>
+      </c>
+      <c r="BV223">
+        <v>2</v>
+      </c>
+      <c r="BW223">
+        <v>3</v>
+      </c>
+      <c r="BX223" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BY223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BZ223">
+        <v>5</v>
+      </c>
+      <c r="CA223">
+        <v>2</v>
+      </c>
+      <c r="CB223">
+        <v>6</v>
+      </c>
+      <c r="CC223">
+        <v>2</v>
+      </c>
+      <c r="CD223">
+        <v>6</v>
+      </c>
+      <c r="CE223">
+        <v>4</v>
+      </c>
+      <c r="CF223">
+        <v>3</v>
+      </c>
+      <c r="CG223">
+        <v>3</v>
+      </c>
+      <c r="CH223">
+        <v>3</v>
+      </c>
+      <c r="CI223">
+        <v>3</v>
+      </c>
+      <c r="CJ223">
+        <v>3</v>
+      </c>
+      <c r="CK223">
+        <v>4</v>
+      </c>
+      <c r="CL223">
+        <v>2</v>
+      </c>
+      <c r="CM223">
+        <v>4</v>
       </c>
       <c r="CO223" t="inlineStr">
         <is>
-          <t>lup_041</t>
+          <t>lup_036</t>
         </is>
       </c>
       <c r="CP223">
@@ -50116,52 +50359,52 @@
         </is>
       </c>
       <c r="CS223">
-        <v>3.941657215551467</v>
+        <v>4.531132549634407</v>
       </c>
       <c r="CT223">
-        <v>0.7489884219398232</v>
+        <v>1.52811490181712</v>
       </c>
       <c r="CU223">
-        <v>0.5920587170310189</v>
+        <v>1.225277941154803</v>
       </c>
       <c r="CV223">
-        <v>7.183850565733477</v>
+        <v>6.90030222482948</v>
       </c>
       <c r="CW223">
-        <v>1.049124213337703</v>
+        <v>1.306145862452105</v>
       </c>
       <c r="CX223">
-        <v>0.02984207146487079</v>
+        <v>1.411279106269497</v>
       </c>
       <c r="CY223">
-        <v>0.3492920828426945</v>
+        <v>0.7512858753158623</v>
       </c>
       <c r="CZ223">
-        <v>0.4855180329070936</v>
+        <v>0.7003031481652723</v>
       </c>
       <c r="DA223">
-        <v>1540.128465937451</v>
+        <v>1644.21887788606</v>
       </c>
       <c r="DB223">
-        <v>788.9325403828653</v>
+        <v>1104.565395288357</v>
       </c>
       <c r="DC223">
-        <v>1422.310375646395</v>
+        <v>1926.810395678205</v>
       </c>
       <c r="DD223">
-        <v>1089.072904204111</v>
+        <v>1113.853773597951</v>
       </c>
       <c r="DE223">
-        <v>720.6948157378359</v>
+        <v>851.5558417625703</v>
       </c>
       <c r="DF223">
-        <v>5346.77229391835</v>
+        <v>12605.36039148739</v>
       </c>
       <c r="DG223">
-        <v>314.9265082006075</v>
+        <v>364.8818053759368</v>
       </c>
       <c r="DH223">
-        <v>206.0814865141668</v>
+        <v>234.6478980588282</v>
       </c>
     </row>
     <row r="224">
@@ -50195,7 +50438,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -50204,10 +50447,10 @@
         </is>
       </c>
       <c r="I224" s="2">
-        <v>45161.32461805556</v>
+        <v>45272.39347222222</v>
       </c>
       <c r="J224" s="2">
-        <v>45161.44961805556</v>
+        <v>45272.51847222222</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -50218,25 +50461,25 @@
         <v>11</v>
       </c>
       <c r="Q224">
-        <v>97074</v>
+        <v>98363</v>
       </c>
       <c r="R224">
         <v>3438</v>
       </c>
       <c r="S224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T224">
         <v>6</v>
       </c>
       <c r="U224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V224">
         <v>5</v>
       </c>
       <c r="W224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X224" t="inlineStr">
         <is>
@@ -50244,106 +50487,106 @@
         </is>
       </c>
       <c r="Y224">
+        <v>5</v>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA224">
         <v>6</v>
       </c>
-      <c r="Z224" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA224">
+      <c r="AB224">
+        <v>10</v>
+      </c>
+      <c r="AC224">
+        <v>3</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>2</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>hals, albuer, håndled</t>
+        </is>
+      </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
+      <c r="AS224">
+        <v>0</v>
+      </c>
+      <c r="AT224">
+        <v>0</v>
+      </c>
+      <c r="AU224">
+        <v>0</v>
+      </c>
+      <c r="AV224">
+        <v>1</v>
+      </c>
+      <c r="AW224">
+        <v>0</v>
+      </c>
+      <c r="AX224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY224">
+        <v>2</v>
+      </c>
+      <c r="AZ224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA224">
+        <v>3</v>
+      </c>
+      <c r="BB224">
+        <v>1</v>
+      </c>
+      <c r="BC224">
         <v>7</v>
       </c>
-      <c r="AB224">
-        <v>40</v>
-      </c>
-      <c r="AC224">
-        <v>2</v>
-      </c>
-      <c r="AD224">
-        <v>0</v>
-      </c>
-      <c r="AE224">
-        <v>3</v>
-      </c>
-      <c r="AF224">
-        <v>0</v>
-      </c>
-      <c r="AG224">
-        <v>0</v>
-      </c>
-      <c r="AH224">
-        <v>1</v>
-      </c>
-      <c r="AI224">
-        <v>2</v>
-      </c>
-      <c r="AJ224" t="inlineStr">
-        <is>
-          <t>Hals og Skulder</t>
-        </is>
-      </c>
-      <c r="AK224">
-        <v>0</v>
-      </c>
-      <c r="AL224">
-        <v>2</v>
-      </c>
-      <c r="AM224">
-        <v>0</v>
-      </c>
-      <c r="AN224">
-        <v>0</v>
-      </c>
-      <c r="AO224">
-        <v>0</v>
-      </c>
-      <c r="AP224">
-        <v>0</v>
-      </c>
-      <c r="AQ224">
-        <v>0</v>
-      </c>
-      <c r="AR224">
-        <v>0</v>
-      </c>
-      <c r="AS224">
-        <v>0</v>
-      </c>
-      <c r="AT224">
-        <v>0</v>
-      </c>
-      <c r="AU224">
-        <v>0</v>
-      </c>
-      <c r="AV224">
-        <v>0</v>
-      </c>
-      <c r="AW224">
-        <v>1</v>
-      </c>
-      <c r="AX224" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY224">
-        <v>2</v>
-      </c>
-      <c r="AZ224" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA224">
-        <v>3</v>
-      </c>
-      <c r="BB224">
-        <v>1</v>
-      </c>
-      <c r="BC224">
-        <v>9</v>
-      </c>
       <c r="BD224" t="inlineStr">
         <is>
           <t>4</t>
@@ -50351,7 +50594,7 @@
       </c>
       <c r="BE224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BF224">
@@ -50361,7 +50604,7 @@
         <v>2</v>
       </c>
       <c r="BH224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI224">
         <v>3</v>
@@ -50382,7 +50625,7 @@
         <v>3</v>
       </c>
       <c r="BO224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP224">
         <v>2</v>
@@ -50406,44 +50649,44 @@
         <v>2</v>
       </c>
       <c r="BW224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BY224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="BZ224">
         <v>5</v>
       </c>
       <c r="CA224">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CB224">
         <v>6</v>
       </c>
       <c r="CC224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CD224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE224">
+        <v>5</v>
+      </c>
+      <c r="CF224">
+        <v>2</v>
+      </c>
+      <c r="CG224">
         <v>4</v>
       </c>
-      <c r="CF224">
-        <v>3</v>
-      </c>
-      <c r="CG224">
-        <v>3</v>
-      </c>
       <c r="CH224">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CI224">
         <v>3</v>
@@ -50455,7 +50698,7 @@
         <v>4</v>
       </c>
       <c r="CL224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM224">
         <v>4</v>
@@ -50554,272 +50797,29 @@
           <t>F</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Visit 5 - Follow-Up</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I225" s="2">
-        <v>45272.39347222222</v>
-      </c>
-      <c r="J225" s="2">
-        <v>45272.51847222222</v>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
+        </is>
+      </c>
+      <c r="M225" s="2">
+        <v>45312</v>
+      </c>
+      <c r="N225" s="2">
+        <v>45372</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P225">
-        <v>11</v>
-      </c>
-      <c r="Q225">
-        <v>98363</v>
-      </c>
-      <c r="R225">
-        <v>3438</v>
-      </c>
-      <c r="S225">
-        <v>6</v>
-      </c>
-      <c r="T225">
-        <v>6</v>
-      </c>
-      <c r="U225">
-        <v>6</v>
-      </c>
-      <c r="V225">
-        <v>5</v>
-      </c>
-      <c r="W225">
-        <v>5</v>
-      </c>
-      <c r="X225" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y225">
-        <v>5</v>
-      </c>
-      <c r="Z225" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AA225">
-        <v>6</v>
-      </c>
-      <c r="AB225">
-        <v>10</v>
-      </c>
-      <c r="AC225">
-        <v>3</v>
-      </c>
-      <c r="AD225">
-        <v>0</v>
-      </c>
-      <c r="AE225">
-        <v>2</v>
-      </c>
-      <c r="AF225">
-        <v>0</v>
-      </c>
-      <c r="AG225">
-        <v>0</v>
-      </c>
-      <c r="AH225">
-        <v>0</v>
-      </c>
-      <c r="AI225">
-        <v>1</v>
-      </c>
-      <c r="AJ225" t="inlineStr">
-        <is>
-          <t>hals, albuer, håndled</t>
-        </is>
-      </c>
-      <c r="AK225">
-        <v>0</v>
-      </c>
-      <c r="AL225">
-        <v>1</v>
-      </c>
-      <c r="AM225">
-        <v>0</v>
-      </c>
-      <c r="AN225">
-        <v>0</v>
-      </c>
-      <c r="AO225">
-        <v>0</v>
-      </c>
-      <c r="AP225">
-        <v>0</v>
-      </c>
-      <c r="AQ225">
-        <v>0</v>
-      </c>
-      <c r="AR225">
-        <v>0</v>
-      </c>
-      <c r="AS225">
-        <v>0</v>
-      </c>
-      <c r="AT225">
-        <v>0</v>
-      </c>
-      <c r="AU225">
-        <v>0</v>
-      </c>
-      <c r="AV225">
-        <v>1</v>
-      </c>
-      <c r="AW225">
-        <v>0</v>
-      </c>
-      <c r="AX225" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY225">
-        <v>2</v>
-      </c>
-      <c r="AZ225" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA225">
-        <v>3</v>
-      </c>
-      <c r="BB225">
-        <v>1</v>
-      </c>
-      <c r="BC225">
-        <v>7</v>
-      </c>
-      <c r="BD225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BE225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BF225">
-        <v>1</v>
-      </c>
-      <c r="BG225">
-        <v>2</v>
-      </c>
-      <c r="BH225">
-        <v>2</v>
-      </c>
-      <c r="BI225">
-        <v>3</v>
-      </c>
-      <c r="BJ225">
-        <v>3</v>
-      </c>
-      <c r="BK225">
-        <v>3</v>
-      </c>
-      <c r="BL225">
-        <v>3</v>
-      </c>
-      <c r="BM225">
-        <v>3</v>
-      </c>
-      <c r="BN225">
-        <v>3</v>
-      </c>
-      <c r="BO225">
-        <v>2</v>
-      </c>
-      <c r="BP225">
-        <v>2</v>
-      </c>
-      <c r="BQ225">
-        <v>1</v>
-      </c>
-      <c r="BR225">
-        <v>1</v>
-      </c>
-      <c r="BS225">
-        <v>1</v>
-      </c>
-      <c r="BT225">
-        <v>2</v>
-      </c>
-      <c r="BU225">
-        <v>2</v>
-      </c>
-      <c r="BV225">
-        <v>2</v>
-      </c>
-      <c r="BW225">
-        <v>4</v>
-      </c>
-      <c r="BX225" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BY225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BZ225">
-        <v>5</v>
-      </c>
-      <c r="CA225">
-        <v>6</v>
-      </c>
-      <c r="CB225">
-        <v>6</v>
-      </c>
-      <c r="CC225">
-        <v>4</v>
-      </c>
-      <c r="CD225">
-        <v>5</v>
-      </c>
-      <c r="CE225">
-        <v>5</v>
-      </c>
-      <c r="CF225">
-        <v>2</v>
-      </c>
-      <c r="CG225">
-        <v>4</v>
-      </c>
-      <c r="CH225">
-        <v>1</v>
-      </c>
-      <c r="CI225">
-        <v>3</v>
-      </c>
-      <c r="CJ225">
-        <v>3</v>
-      </c>
-      <c r="CK225">
-        <v>4</v>
-      </c>
-      <c r="CL225">
-        <v>3</v>
-      </c>
-      <c r="CM225">
-        <v>4</v>
+      <c r="CN225">
+        <v>1517</v>
       </c>
       <c r="CO225" t="inlineStr">
         <is>
@@ -50922,14 +50922,14 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M226" s="2">
-        <v>45312</v>
+        <v>45372</v>
       </c>
       <c r="N226" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -50937,7 +50937,7 @@
         </is>
       </c>
       <c r="CN226">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="CO226" t="inlineStr">
         <is>
@@ -51040,14 +51040,14 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M227" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="N227" s="2">
-        <v>45402</v>
+        <v>45462</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         </is>
       </c>
       <c r="CN227">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CO227" t="inlineStr">
         <is>
@@ -51124,7 +51124,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>212838</v>
+        <v>212828</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -51138,46 +51138,289 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>Arb liste 79</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>LUP036</t>
+          <t>Lup035</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M228" s="2">
-        <v>45402</v>
-      </c>
-      <c r="N228" s="2">
-        <v>45462</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Visit 2 - Baseline</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I228" s="2">
+        <v>45146.38482638889</v>
+      </c>
+      <c r="J228" s="2">
+        <v>45146.50982638889</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="CN228">
-        <v>1518</v>
+      <c r="P228">
+        <v>11</v>
+      </c>
+      <c r="Q228">
+        <v>96876</v>
+      </c>
+      <c r="R228">
+        <v>3438</v>
+      </c>
+      <c r="S228">
+        <v>6</v>
+      </c>
+      <c r="T228">
+        <v>6</v>
+      </c>
+      <c r="U228">
+        <v>6</v>
+      </c>
+      <c r="V228">
+        <v>6</v>
+      </c>
+      <c r="W228">
+        <v>5</v>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Y228">
+        <v>4</v>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AA228">
+        <v>5</v>
+      </c>
+      <c r="AB228">
+        <v>33</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>2</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>Håndryg</t>
+        </is>
+      </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
+      <c r="AO228">
+        <v>1</v>
+      </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
+      <c r="AR228">
+        <v>2</v>
+      </c>
+      <c r="AS228">
+        <v>2</v>
+      </c>
+      <c r="AT228">
+        <v>0</v>
+      </c>
+      <c r="AU228">
+        <v>0</v>
+      </c>
+      <c r="AV228">
+        <v>1</v>
+      </c>
+      <c r="AW228">
+        <v>1</v>
+      </c>
+      <c r="AX228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY228">
+        <v>1</v>
+      </c>
+      <c r="AZ228" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA228">
+        <v>2</v>
+      </c>
+      <c r="BB228">
+        <v>1</v>
+      </c>
+      <c r="BC228">
+        <v>3</v>
+      </c>
+      <c r="BD228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BE228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BF228">
+        <v>1</v>
+      </c>
+      <c r="BG228">
+        <v>2</v>
+      </c>
+      <c r="BH228">
+        <v>2</v>
+      </c>
+      <c r="BI228">
+        <v>1</v>
+      </c>
+      <c r="BJ228">
+        <v>3</v>
+      </c>
+      <c r="BK228">
+        <v>2</v>
+      </c>
+      <c r="BL228">
+        <v>2</v>
+      </c>
+      <c r="BM228">
+        <v>2</v>
+      </c>
+      <c r="BN228">
+        <v>2</v>
+      </c>
+      <c r="BO228">
+        <v>2</v>
+      </c>
+      <c r="BP228">
+        <v>1</v>
+      </c>
+      <c r="BQ228">
+        <v>2</v>
+      </c>
+      <c r="BR228">
+        <v>1</v>
+      </c>
+      <c r="BS228">
+        <v>1</v>
+      </c>
+      <c r="BT228">
+        <v>2</v>
+      </c>
+      <c r="BU228">
+        <v>2</v>
+      </c>
+      <c r="BV228">
+        <v>1</v>
+      </c>
+      <c r="BW228">
+        <v>2</v>
+      </c>
+      <c r="BX228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BZ228">
+        <v>5</v>
+      </c>
+      <c r="CA228">
+        <v>6</v>
+      </c>
+      <c r="CB228">
+        <v>6</v>
+      </c>
+      <c r="CC228">
+        <v>4</v>
+      </c>
+      <c r="CD228">
+        <v>5</v>
+      </c>
+      <c r="CE228">
+        <v>5</v>
+      </c>
+      <c r="CF228">
+        <v>3</v>
+      </c>
+      <c r="CG228">
+        <v>5</v>
+      </c>
+      <c r="CH228">
+        <v>2</v>
+      </c>
+      <c r="CI228">
+        <v>2</v>
+      </c>
+      <c r="CJ228">
+        <v>3</v>
+      </c>
+      <c r="CK228">
+        <v>4</v>
+      </c>
+      <c r="CL228">
+        <v>2</v>
+      </c>
+      <c r="CM228">
+        <v>5</v>
       </c>
       <c r="CO228" t="inlineStr">
         <is>
-          <t>lup_036</t>
+          <t>lup_035</t>
         </is>
       </c>
       <c r="CP228">
@@ -51192,52 +51435,52 @@
         </is>
       </c>
       <c r="CS228">
-        <v>4.531132549634407</v>
+        <v>2.397878739167862</v>
       </c>
       <c r="CT228">
-        <v>1.52811490181712</v>
+        <v>0.576906691366192</v>
       </c>
       <c r="CU228">
-        <v>1.225277941154803</v>
+        <v>0.2947028397148828</v>
       </c>
       <c r="CV228">
-        <v>6.90030222482948</v>
+        <v>4.431182481261312</v>
       </c>
       <c r="CW228">
-        <v>1.306145862452105</v>
+        <v>0.8128142632779356</v>
       </c>
       <c r="CX228">
-        <v>1.411279106269497</v>
+        <v>-0.08331139637811685</v>
       </c>
       <c r="CY228">
-        <v>0.7512858753158623</v>
+        <v>0.9148896559934434</v>
       </c>
       <c r="CZ228">
-        <v>0.7003031481652723</v>
+        <v>1.671963922322597</v>
       </c>
       <c r="DA228">
-        <v>1644.21887788606</v>
+        <v>1113.417389008471</v>
       </c>
       <c r="DB228">
-        <v>1104.565395288357</v>
+        <v>719.0697825749763</v>
       </c>
       <c r="DC228">
-        <v>1926.810395678205</v>
+        <v>1153.164056012696</v>
       </c>
       <c r="DD228">
-        <v>1113.853773597951</v>
+        <v>982.826599416524</v>
       </c>
       <c r="DE228">
-        <v>851.5558417625703</v>
+        <v>673.4044198791217</v>
       </c>
       <c r="DF228">
-        <v>12605.36039148739</v>
+        <v>4957.48072821192</v>
       </c>
       <c r="DG228">
-        <v>364.8818053759368</v>
+        <v>387.2850221430938</v>
       </c>
       <c r="DH228">
-        <v>234.6478980588282</v>
+        <v>299.6508894564567</v>
       </c>
     </row>
     <row r="229">
@@ -51271,7 +51514,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Visit 2 - Baseline</t>
+          <t>Visit 5 - Follow-Up</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -51280,10 +51523,10 @@
         </is>
       </c>
       <c r="I229" s="2">
-        <v>45146.38482638889</v>
+        <v>45236.34153935185</v>
       </c>
       <c r="J229" s="2">
-        <v>45146.50982638889</v>
+        <v>45236.46653935185</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -51294,7 +51537,7 @@
         <v>11</v>
       </c>
       <c r="Q229">
-        <v>96876</v>
+        <v>98126</v>
       </c>
       <c r="R229">
         <v>3438</v>
@@ -51303,7 +51546,7 @@
         <v>6</v>
       </c>
       <c r="T229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U229">
         <v>6</v>
@@ -51316,186 +51559,181 @@
       </c>
       <c r="X229" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y229">
+        <v>5</v>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AA229">
+        <v>6</v>
+      </c>
+      <c r="AB229">
+        <v>40</v>
+      </c>
+      <c r="AC229">
+        <v>1</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>2</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AK229">
+        <v>0</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
+      <c r="AO229">
+        <v>1</v>
+      </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
+      <c r="AQ229">
+        <v>0</v>
+      </c>
+      <c r="AR229">
+        <v>0</v>
+      </c>
+      <c r="AS229">
+        <v>1</v>
+      </c>
+      <c r="AT229">
+        <v>0</v>
+      </c>
+      <c r="AU229">
+        <v>0</v>
+      </c>
+      <c r="AV229">
+        <v>0</v>
+      </c>
+      <c r="AW229">
+        <v>1</v>
+      </c>
+      <c r="AX229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY229">
+        <v>1</v>
+      </c>
+      <c r="AZ229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA229">
+        <v>2</v>
+      </c>
+      <c r="BB229">
+        <v>1</v>
+      </c>
+      <c r="BC229">
+        <v>4</v>
+      </c>
+      <c r="BD229" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y229">
+      <c r="BE229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BF229">
+        <v>1</v>
+      </c>
+      <c r="BG229">
+        <v>2</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>2</v>
+      </c>
+      <c r="BJ229">
+        <v>3</v>
+      </c>
+      <c r="BK229">
+        <v>2</v>
+      </c>
+      <c r="BL229">
+        <v>2</v>
+      </c>
+      <c r="BM229">
+        <v>3</v>
+      </c>
+      <c r="BN229">
+        <v>3</v>
+      </c>
+      <c r="BO229">
+        <v>3</v>
+      </c>
+      <c r="BP229">
+        <v>2</v>
+      </c>
+      <c r="BQ229">
+        <v>2</v>
+      </c>
+      <c r="BR229">
+        <v>1</v>
+      </c>
+      <c r="BS229">
+        <v>1</v>
+      </c>
+      <c r="BT229">
+        <v>2</v>
+      </c>
+      <c r="BU229">
+        <v>2</v>
+      </c>
+      <c r="BV229">
+        <v>2</v>
+      </c>
+      <c r="BW229">
+        <v>2</v>
+      </c>
+      <c r="BX229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY229" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BZ229">
         <v>4</v>
-      </c>
-      <c r="Z229" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AA229">
-        <v>5</v>
-      </c>
-      <c r="AB229">
-        <v>33</v>
-      </c>
-      <c r="AC229">
-        <v>0</v>
-      </c>
-      <c r="AD229">
-        <v>0</v>
-      </c>
-      <c r="AE229">
-        <v>2</v>
-      </c>
-      <c r="AF229">
-        <v>0</v>
-      </c>
-      <c r="AG229">
-        <v>0</v>
-      </c>
-      <c r="AH229">
-        <v>1</v>
-      </c>
-      <c r="AI229">
-        <v>1</v>
-      </c>
-      <c r="AJ229" t="inlineStr">
-        <is>
-          <t>Håndryg</t>
-        </is>
-      </c>
-      <c r="AK229">
-        <v>0</v>
-      </c>
-      <c r="AL229">
-        <v>1</v>
-      </c>
-      <c r="AM229">
-        <v>0</v>
-      </c>
-      <c r="AN229">
-        <v>0</v>
-      </c>
-      <c r="AO229">
-        <v>1</v>
-      </c>
-      <c r="AP229">
-        <v>0</v>
-      </c>
-      <c r="AQ229">
-        <v>0</v>
-      </c>
-      <c r="AR229">
-        <v>2</v>
-      </c>
-      <c r="AS229">
-        <v>2</v>
-      </c>
-      <c r="AT229">
-        <v>0</v>
-      </c>
-      <c r="AU229">
-        <v>0</v>
-      </c>
-      <c r="AV229">
-        <v>1</v>
-      </c>
-      <c r="AW229">
-        <v>1</v>
-      </c>
-      <c r="AX229" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY229">
-        <v>1</v>
-      </c>
-      <c r="AZ229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA229">
-        <v>2</v>
-      </c>
-      <c r="BB229">
-        <v>1</v>
-      </c>
-      <c r="BC229">
-        <v>3</v>
-      </c>
-      <c r="BD229" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BE229" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BF229">
-        <v>1</v>
-      </c>
-      <c r="BG229">
-        <v>2</v>
-      </c>
-      <c r="BH229">
-        <v>2</v>
-      </c>
-      <c r="BI229">
-        <v>1</v>
-      </c>
-      <c r="BJ229">
-        <v>3</v>
-      </c>
-      <c r="BK229">
-        <v>2</v>
-      </c>
-      <c r="BL229">
-        <v>2</v>
-      </c>
-      <c r="BM229">
-        <v>2</v>
-      </c>
-      <c r="BN229">
-        <v>2</v>
-      </c>
-      <c r="BO229">
-        <v>2</v>
-      </c>
-      <c r="BP229">
-        <v>1</v>
-      </c>
-      <c r="BQ229">
-        <v>2</v>
-      </c>
-      <c r="BR229">
-        <v>1</v>
-      </c>
-      <c r="BS229">
-        <v>1</v>
-      </c>
-      <c r="BT229">
-        <v>2</v>
-      </c>
-      <c r="BU229">
-        <v>2</v>
-      </c>
-      <c r="BV229">
-        <v>1</v>
-      </c>
-      <c r="BW229">
-        <v>2</v>
-      </c>
-      <c r="BX229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BY229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BZ229">
-        <v>5</v>
       </c>
       <c r="CA229">
         <v>6</v>
@@ -51504,34 +51742,34 @@
         <v>6</v>
       </c>
       <c r="CC229">
+        <v>2</v>
+      </c>
+      <c r="CD229">
         <v>4</v>
-      </c>
-      <c r="CD229">
-        <v>5</v>
       </c>
       <c r="CE229">
         <v>5</v>
       </c>
       <c r="CF229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CG229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CI229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CJ229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK229">
         <v>4</v>
       </c>
       <c r="CL229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM229">
         <v>5</v>
@@ -51630,267 +51868,29 @@
           <t>M</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Visit 5 - Follow-Up</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="I230" s="2">
-        <v>45236.34153935185</v>
-      </c>
-      <c r="J230" s="2">
-        <v>45236.46653935185</v>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Spørgeskemaer efter deltagelse</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Spørgeskema 1 måned efter deltagelse</t>
+        </is>
+      </c>
+      <c r="M230" s="2">
+        <v>45312</v>
+      </c>
+      <c r="N230" s="2">
+        <v>45372</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
           <t>_g_visit__spørgeskemaer</t>
         </is>
       </c>
-      <c r="P230">
-        <v>11</v>
-      </c>
-      <c r="Q230">
-        <v>98126</v>
-      </c>
-      <c r="R230">
-        <v>3438</v>
-      </c>
-      <c r="S230">
-        <v>6</v>
-      </c>
-      <c r="T230">
-        <v>7</v>
-      </c>
-      <c r="U230">
-        <v>6</v>
-      </c>
-      <c r="V230">
-        <v>6</v>
-      </c>
-      <c r="W230">
-        <v>5</v>
-      </c>
-      <c r="X230" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y230">
-        <v>5</v>
-      </c>
-      <c r="Z230" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AA230">
-        <v>6</v>
-      </c>
-      <c r="AB230">
-        <v>40</v>
-      </c>
-      <c r="AC230">
-        <v>1</v>
-      </c>
-      <c r="AD230">
-        <v>0</v>
-      </c>
-      <c r="AE230">
-        <v>2</v>
-      </c>
-      <c r="AF230">
-        <v>0</v>
-      </c>
-      <c r="AG230">
-        <v>0</v>
-      </c>
-      <c r="AH230">
-        <v>0</v>
-      </c>
-      <c r="AI230">
-        <v>0</v>
-      </c>
-      <c r="AK230">
-        <v>0</v>
-      </c>
-      <c r="AL230">
-        <v>0</v>
-      </c>
-      <c r="AM230">
-        <v>0</v>
-      </c>
-      <c r="AN230">
-        <v>0</v>
-      </c>
-      <c r="AO230">
-        <v>1</v>
-      </c>
-      <c r="AP230">
-        <v>0</v>
-      </c>
-      <c r="AQ230">
-        <v>0</v>
-      </c>
-      <c r="AR230">
-        <v>0</v>
-      </c>
-      <c r="AS230">
-        <v>1</v>
-      </c>
-      <c r="AT230">
-        <v>0</v>
-      </c>
-      <c r="AU230">
-        <v>0</v>
-      </c>
-      <c r="AV230">
-        <v>0</v>
-      </c>
-      <c r="AW230">
-        <v>1</v>
-      </c>
-      <c r="AX230" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY230">
-        <v>1</v>
-      </c>
-      <c r="AZ230" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA230">
-        <v>2</v>
-      </c>
-      <c r="BB230">
-        <v>1</v>
-      </c>
-      <c r="BC230">
-        <v>4</v>
-      </c>
-      <c r="BD230" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BE230" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="BF230">
-        <v>1</v>
-      </c>
-      <c r="BG230">
-        <v>2</v>
-      </c>
-      <c r="BH230">
-        <v>3</v>
-      </c>
-      <c r="BI230">
-        <v>2</v>
-      </c>
-      <c r="BJ230">
-        <v>3</v>
-      </c>
-      <c r="BK230">
-        <v>2</v>
-      </c>
-      <c r="BL230">
-        <v>2</v>
-      </c>
-      <c r="BM230">
-        <v>3</v>
-      </c>
-      <c r="BN230">
-        <v>3</v>
-      </c>
-      <c r="BO230">
-        <v>3</v>
-      </c>
-      <c r="BP230">
-        <v>2</v>
-      </c>
-      <c r="BQ230">
-        <v>2</v>
-      </c>
-      <c r="BR230">
-        <v>1</v>
-      </c>
-      <c r="BS230">
-        <v>1</v>
-      </c>
-      <c r="BT230">
-        <v>2</v>
-      </c>
-      <c r="BU230">
-        <v>2</v>
-      </c>
-      <c r="BV230">
-        <v>2</v>
-      </c>
-      <c r="BW230">
-        <v>2</v>
-      </c>
-      <c r="BX230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="BY230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BZ230">
-        <v>4</v>
-      </c>
-      <c r="CA230">
-        <v>6</v>
-      </c>
-      <c r="CB230">
-        <v>6</v>
-      </c>
-      <c r="CC230">
-        <v>2</v>
-      </c>
-      <c r="CD230">
-        <v>4</v>
-      </c>
-      <c r="CE230">
-        <v>5</v>
-      </c>
-      <c r="CF230">
-        <v>5</v>
-      </c>
-      <c r="CG230">
-        <v>4</v>
-      </c>
-      <c r="CH230">
-        <v>3</v>
-      </c>
-      <c r="CI230">
-        <v>4</v>
-      </c>
-      <c r="CJ230">
-        <v>2</v>
-      </c>
-      <c r="CK230">
-        <v>4</v>
-      </c>
-      <c r="CL230">
-        <v>3</v>
-      </c>
-      <c r="CM230">
-        <v>5</v>
+      <c r="CN230">
+        <v>1517</v>
       </c>
       <c r="CO230" t="inlineStr">
         <is>
@@ -51993,14 +51993,14 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Spørgeskema 1 måned efter deltagelse</t>
+          <t>Spørgeskema 2 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M231" s="2">
-        <v>45312</v>
+        <v>45372</v>
       </c>
       <c r="N231" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -52008,7 +52008,7 @@
         </is>
       </c>
       <c r="CN231">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="CO231" t="inlineStr">
         <is>
@@ -52111,14 +52111,14 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Spørgeskema 2 måneder efter deltagelse</t>
+          <t>Spørgeskema 3 måneder efter deltagelse</t>
         </is>
       </c>
       <c r="M232" s="2">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="N232" s="2">
-        <v>45402</v>
+        <v>45462</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -52126,7 +52126,7 @@
         </is>
       </c>
       <c r="CN232">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="CO232" t="inlineStr">
         <is>
@@ -52190,124 +52190,6 @@
         <v>387.2850221430938</v>
       </c>
       <c r="DH232">
-        <v>299.6508894564567</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233">
-        <v>212828</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>LUPEX</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Center for Aktiv Sundhed</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Arb liste 79</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Lup035</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>Spørgeskemaer efter deltagelse</t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Spørgeskema 3 måneder efter deltagelse</t>
-        </is>
-      </c>
-      <c r="M233" s="2">
-        <v>45402</v>
-      </c>
-      <c r="N233" s="2">
-        <v>45462</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>_g_visit__spørgeskemaer</t>
-        </is>
-      </c>
-      <c r="CN233">
-        <v>1518</v>
-      </c>
-      <c r="CO233" t="inlineStr">
-        <is>
-          <t>lup_035</t>
-        </is>
-      </c>
-      <c r="CP233">
-        <v>1</v>
-      </c>
-      <c r="CQ233">
-        <v>0</v>
-      </c>
-      <c r="CR233" t="inlineStr">
-        <is>
-          <t>Søløve</t>
-        </is>
-      </c>
-      <c r="CS233">
-        <v>2.397878739167862</v>
-      </c>
-      <c r="CT233">
-        <v>0.576906691366192</v>
-      </c>
-      <c r="CU233">
-        <v>0.2947028397148828</v>
-      </c>
-      <c r="CV233">
-        <v>4.431182481261312</v>
-      </c>
-      <c r="CW233">
-        <v>0.8128142632779356</v>
-      </c>
-      <c r="CX233">
-        <v>-0.08331139637811685</v>
-      </c>
-      <c r="CY233">
-        <v>0.9148896559934434</v>
-      </c>
-      <c r="CZ233">
-        <v>1.671963922322597</v>
-      </c>
-      <c r="DA233">
-        <v>1113.417389008471</v>
-      </c>
-      <c r="DB233">
-        <v>719.0697825749763</v>
-      </c>
-      <c r="DC233">
-        <v>1153.164056012696</v>
-      </c>
-      <c r="DD233">
-        <v>982.826599416524</v>
-      </c>
-      <c r="DE233">
-        <v>673.4044198791217</v>
-      </c>
-      <c r="DF233">
-        <v>4957.48072821192</v>
-      </c>
-      <c r="DG233">
-        <v>387.2850221430938</v>
-      </c>
-      <c r="DH233">
         <v>299.6508894564567</v>
       </c>
     </row>
